--- a/ASHRAE901_ApartmentHighRise_STD2019_FairbanksTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_FairbanksTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1741.40</t>
+          <t>1979.04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1091.76</t>
+          <t>1931.22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>469.49</t>
+          <t>684.91</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1050.45</t>
+          <t>1922.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>788.80</t>
+          <t>1395.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>786.93</t>
+          <t>1395.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1297.28</t>
+          <t>1457.57</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1366.24</t>
+          <t>1488.45</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2469.90</t>
+          <t>2616.97</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1963.17</t>
+          <t>2606.63</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1980.53</t>
+          <t>2199.14</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1474.18</t>
+          <t>1949.65</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1103.82</t>
+          <t>1440.27</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1093.24</t>
+          <t>1425.28</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1281.74</t>
+          <t>1330.88</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1269.53</t>
+          <t>1316.94</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2486.79</t>
+          <t>2642.89</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2012.65</t>
+          <t>2659.48</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1964.57</t>
+          <t>1975.75</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1520.89</t>
+          <t>1946.46</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1380.37</t>
+          <t>1468.92</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1366.31</t>
+          <t>1453.67</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1311.27</t>
+          <t>1354.70</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1302.35</t>
+          <t>1348.07</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2516.58</t>
+          <t>2635.41</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2369.72</t>
+          <t>2651.92</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1962.97</t>
+          <t>1974.25</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1524.80</t>
+          <t>1945.06</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1382.55</t>
+          <t>1473.76</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1368.47</t>
+          <t>1421.63</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1315.83</t>
+          <t>1363.36</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1308.86</t>
+          <t>1351.93</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2511.80</t>
+          <t>2608.04</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2337.14</t>
+          <t>2640.85</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1957.46</t>
+          <t>1969.35</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1521.05</t>
+          <t>1940.30</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1358.74</t>
+          <t>1473.43</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1308.72</t>
+          <t>1458.91</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1321.93</t>
+          <t>1363.47</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1308.57</t>
+          <t>1352.19</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2506.23</t>
+          <t>2600.44</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2074.23</t>
+          <t>2631.73</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>1957.73</t>
+          <t>1964.27</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1515.25</t>
+          <t>1935.73</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1136.74</t>
+          <t>1472.43</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1125.75</t>
+          <t>1457.58</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1320.97</t>
+          <t>1361.64</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1307.87</t>
+          <t>1351.84</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2501.79</t>
+          <t>2630.74</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>2008.39</t>
+          <t>2624.25</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>1953.02</t>
+          <t>1959.81</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1508.97</t>
+          <t>1934.61</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1134.10</t>
+          <t>1472.29</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1123.13</t>
+          <t>1457.17</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1320.68</t>
+          <t>1361.32</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1313.86</t>
+          <t>1352.14</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2500.02</t>
+          <t>2630.01</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>2008.10</t>
+          <t>2623.34</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>1950.94</t>
+          <t>1960.98</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1507.42</t>
+          <t>1935.95</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1136.31</t>
+          <t>1477.24</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1125.37</t>
+          <t>1462.73</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1325.28</t>
+          <t>1365.10</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1318.65</t>
+          <t>1352.11</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2601.02</t>
+          <t>2705.79</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>2086.90</t>
+          <t>2700.16</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2023.48</t>
+          <t>2153.00</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1526.90</t>
+          <t>1960.72</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1193.45</t>
+          <t>1552.06</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1181.75</t>
+          <t>1537.96</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1383.17</t>
+          <t>1403.55</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1370.65</t>
+          <t>1390.12</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3263.19</t>
+          <t>3332.48</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>3092.05</t>
+          <t>3254.59</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>2634.48</t>
+          <t>2616.96</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>1829.23</t>
+          <t>2402.73</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1443.13</t>
+          <t>1838.54</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1407.66</t>
+          <t>1800.53</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>1960.36</t>
+          <t>2055.03</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>1960.11</t>
+          <t>2059.54</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1795.64</t>
+          <t>1982.84</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>132.77</t>
+          <t>1964.81</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>308.04</t>
+          <t>634.95</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>131.66</t>
+          <t>1914.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>144.20</t>
+          <t>1375.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>143.89</t>
+          <t>1375.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1254.81</t>
+          <t>1446.12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1271.10</t>
+          <t>1458.36</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2473.95</t>
+          <t>2641.77</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2308.32</t>
+          <t>2671.65</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1850.30</t>
+          <t>2173.90</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1344.40</t>
+          <t>2001.83</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1267.73</t>
+          <t>1451.11</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1251.49</t>
+          <t>1434.80</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1130.83</t>
+          <t>1298.29</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1115.93</t>
+          <t>1287.41</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2517.78</t>
+          <t>2666.17</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2377.23</t>
+          <t>2705.26</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1845.16</t>
+          <t>1971.66</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1754.03</t>
+          <t>2023.16</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1308.93</t>
+          <t>1474.81</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1292.73</t>
+          <t>1459.35</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1232.97</t>
+          <t>1324.56</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1222.45</t>
+          <t>1326.57</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2529.44</t>
+          <t>2657.07</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2388.68</t>
+          <t>2705.20</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1851.88</t>
+          <t>1968.93</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1761.50</t>
+          <t>2019.79</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1316.89</t>
+          <t>1500.96</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1300.85</t>
+          <t>1462.20</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1243.18</t>
+          <t>1329.06</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1233.88</t>
+          <t>1328.49</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2528.35</t>
+          <t>2638.69</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2384.15</t>
+          <t>2699.79</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1852.26</t>
+          <t>1963.63</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1756.12</t>
+          <t>2016.86</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1315.07</t>
+          <t>1475.79</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1299.18</t>
+          <t>1460.28</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1215.82</t>
+          <t>1329.12</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1204.12</t>
+          <t>1326.20</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2539.93</t>
+          <t>2619.52</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2375.36</t>
+          <t>2694.67</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>1863.85</t>
+          <t>1958.33</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>1747.24</t>
+          <t>2007.86</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1310.71</t>
+          <t>1473.65</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1294.84</t>
+          <t>1458.18</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1213.34</t>
+          <t>1332.85</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1201.68</t>
+          <t>1324.87</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2532.95</t>
+          <t>2614.01</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>2366.48</t>
+          <t>2691.83</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>1820.72</t>
+          <t>1954.14</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1738.55</t>
+          <t>1999.31</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>1306.60</t>
+          <t>1481.07</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>1290.72</t>
+          <t>1465.60</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1210.17</t>
+          <t>1331.53</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1201.37</t>
+          <t>1322.52</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>2431.48</t>
+          <t>2616.12</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>2362.32</t>
+          <t>2695.92</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>1771.52</t>
+          <t>1961.04</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>1733.87</t>
+          <t>1999.89</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>1306.97</t>
+          <t>1485.45</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>1291.10</t>
+          <t>1470.02</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1208.89</t>
+          <t>1334.99</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1199.76</t>
+          <t>1323.22</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>2474.30</t>
+          <t>2690.65</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>2449.42</t>
+          <t>2795.22</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>1835.13</t>
+          <t>2170.79</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>1753.52</t>
+          <t>2031.22</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>1371.16</t>
+          <t>1558.87</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>1354.34</t>
+          <t>1541.97</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1248.49</t>
+          <t>1386.53</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1234.93</t>
+          <t>1376.37</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>3359.85</t>
+          <t>3187.56</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>2628.84</t>
+          <t>3482.96</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>2531.84</t>
+          <t>2623.83</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>2154.06</t>
+          <t>2481.64</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>1693.60</t>
+          <t>1928.73</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>1650.60</t>
+          <t>1890.80</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1837.00</t>
+          <t>2018.86</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1830.95</t>
+          <t>2024.09</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1499.22</t>
+          <t>1952.23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1335.83</t>
+          <t>1953.25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>302.50</t>
+          <t>501.08</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1346.10</t>
+          <t>1935.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>964.11</t>
+          <t>1406.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>963.80</t>
+          <t>1401.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1067.94</t>
+          <t>1384.53</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1084.04</t>
+          <t>1404.51</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2078.73</t>
+          <t>2517.98</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2028.19</t>
+          <t>2642.15</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1677.45</t>
+          <t>2056.83</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1518.28</t>
+          <t>1954.69</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1065.42</t>
+          <t>1440.67</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1054.99</t>
+          <t>1426.20</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>978.70</t>
+          <t>1259.52</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>983.88</t>
+          <t>1250.51</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2167.25</t>
+          <t>2544.24</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2085.89</t>
+          <t>2683.99</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1624.16</t>
+          <t>1917.34</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1576.27</t>
+          <t>1981.70</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1123.98</t>
+          <t>1459.64</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1113.06</t>
+          <t>1443.60</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1042.35</t>
+          <t>1285.56</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1033.75</t>
+          <t>1280.43</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2177.48</t>
+          <t>2539.13</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2098.22</t>
+          <t>2699.82</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1629.83</t>
+          <t>1911.11</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1581.35</t>
+          <t>1982.31</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1129.47</t>
+          <t>1471.15</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1176.67</t>
+          <t>1454.78</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1048.52</t>
+          <t>1288.33</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1064.13</t>
+          <t>1282.54</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2175.44</t>
+          <t>2530.31</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2091.97</t>
+          <t>2696.98</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1627.23</t>
+          <t>1915.48</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1579.05</t>
+          <t>1970.00</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1132.04</t>
+          <t>1465.54</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1185.60</t>
+          <t>1449.45</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1042.55</t>
+          <t>1285.51</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1056.97</t>
+          <t>1279.59</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2168.29</t>
+          <t>2522.17</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2080.90</t>
+          <t>2682.64</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>1622.46</t>
+          <t>1908.85</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1571.23</t>
+          <t>1958.57</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1096.98</t>
+          <t>1469.20</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1086.70</t>
+          <t>1454.60</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1035.64</t>
+          <t>1287.08</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1029.57</t>
+          <t>1275.66</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2144.85</t>
+          <t>2520.41</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2072.16</t>
+          <t>2676.17</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>1612.94</t>
+          <t>1903.84</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1562.63</t>
+          <t>1938.15</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1088.35</t>
+          <t>1473.04</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1078.17</t>
+          <t>1436.30</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>993.43</t>
+          <t>1279.93</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1009.45</t>
+          <t>1271.74</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2126.27</t>
+          <t>2523.47</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2075.96</t>
+          <t>2677.20</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>1624.56</t>
+          <t>1907.51</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1563.93</t>
+          <t>1933.14</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1090.72</t>
+          <t>1456.10</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1082.40</t>
+          <t>1438.69</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>996.54</t>
+          <t>1264.62</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1000.96</t>
+          <t>1268.38</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2220.92</t>
+          <t>2609.39</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2161.52</t>
+          <t>2757.52</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>1747.14</t>
+          <t>2049.87</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1605.36</t>
+          <t>1959.65</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1159.44</t>
+          <t>1525.94</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1161.55</t>
+          <t>1509.44</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1083.37</t>
+          <t>1328.97</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1073.45</t>
+          <t>1313.88</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>2918.81</t>
+          <t>3314.42</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>2859.98</t>
+          <t>3345.22</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2380.52</t>
+          <t>2613.14</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2156.93</t>
+          <t>2471.80</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1612.28</t>
+          <t>1893.47</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1590.87</t>
+          <t>1853.40</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>1664.23</t>
+          <t>1929.93</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>1672.78</t>
+          <t>1929.00</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1377.51</t>
+          <t>1950.49</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1375.12</t>
+          <t>1960.82</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>239.10</t>
+          <t>607.28</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1363.57</t>
+          <t>1960.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1003.49</t>
+          <t>1383.48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1003.20</t>
+          <t>1383.86</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>998.95</t>
+          <t>1391.25</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1016.44</t>
+          <t>1416.41</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1885.81</t>
+          <t>2450.16</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2038.85</t>
+          <t>2635.48</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1521.66</t>
+          <t>1994.23</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1489.50</t>
+          <t>1964.96</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1103.65</t>
+          <t>1423.04</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1094.47</t>
+          <t>1408.63</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>937.93</t>
+          <t>1218.76</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>946.15</t>
+          <t>1210.03</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1933.80</t>
+          <t>2472.65</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2064.19</t>
+          <t>2658.73</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1410.93</t>
+          <t>1925.82</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1493.14</t>
+          <t>1985.15</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1136.43</t>
+          <t>1453.40</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1116.16</t>
+          <t>1438.89</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1024.34</t>
+          <t>1244.70</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1034.70</t>
+          <t>1240.52</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>1937.32</t>
+          <t>2471.79</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2064.04</t>
+          <t>2656.05</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1460.07</t>
+          <t>1908.91</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1490.31</t>
+          <t>1977.85</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1140.07</t>
+          <t>1461.15</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1133.90</t>
+          <t>1446.64</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1039.95</t>
+          <t>1249.03</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1054.79</t>
+          <t>1244.30</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>1929.09</t>
+          <t>2467.68</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2059.71</t>
+          <t>2650.11</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1450.47</t>
+          <t>1895.31</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1533.51</t>
+          <t>1968.43</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1135.13</t>
+          <t>1459.56</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1136.96</t>
+          <t>1445.48</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1040.10</t>
+          <t>1230.98</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1031.06</t>
+          <t>1233.26</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>1922.04</t>
+          <t>2463.41</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2054.97</t>
+          <t>2644.66</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>1443.17</t>
+          <t>1887.11</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1522.89</t>
+          <t>1959.71</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1130.14</t>
+          <t>1456.63</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1125.24</t>
+          <t>1442.38</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1027.61</t>
+          <t>1235.04</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1028.47</t>
+          <t>1230.76</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>1916.02</t>
+          <t>2460.28</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2051.20</t>
+          <t>2640.49</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>1435.88</t>
+          <t>1880.43</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1515.30</t>
+          <t>1952.76</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1125.42</t>
+          <t>1454.77</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1122.98</t>
+          <t>1440.46</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1015.18</t>
+          <t>1230.61</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1030.09</t>
+          <t>1229.31</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>1915.58</t>
+          <t>2447.13</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2052.51</t>
+          <t>2619.29</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>1432.97</t>
+          <t>1873.39</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1513.68</t>
+          <t>1945.35</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1127.23</t>
+          <t>1445.18</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1119.12</t>
+          <t>1430.80</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1004.82</t>
+          <t>1238.20</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1014.73</t>
+          <t>1233.17</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>1988.50</t>
+          <t>2527.09</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2126.15</t>
+          <t>2704.05</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>1542.20</t>
+          <t>1957.79</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>1546.69</t>
+          <t>1972.67</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1193.60</t>
+          <t>1517.77</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1184.53</t>
+          <t>1503.21</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1037.14</t>
+          <t>1308.01</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1036.39</t>
+          <t>1294.82</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>2628.52</t>
+          <t>3169.10</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>2707.28</t>
+          <t>3286.19</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2054.62</t>
+          <t>2477.81</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>1968.89</t>
+          <t>2458.71</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1475.98</t>
+          <t>1858.69</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1449.55</t>
+          <t>1825.28</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1427.66</t>
+          <t>1831.77</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1431.16</t>
+          <t>1846.31</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1497.42</t>
+          <t>1942.59</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1568.69</t>
+          <t>1943.55</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>189.78</t>
+          <t>894.08</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1545.36</t>
+          <t>1993.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1105.43</t>
+          <t>1397.61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1105.29</t>
+          <t>1398.86</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1065.92</t>
+          <t>1361.33</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1091.12</t>
+          <t>1392.65</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1984.11</t>
+          <t>2378.56</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2236.94</t>
+          <t>2590.06</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1570.75</t>
+          <t>1931.34</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1641.25</t>
+          <t>1966.51</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1188.09</t>
+          <t>1419.19</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1176.74</t>
+          <t>1404.93</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>943.57</t>
+          <t>1180.57</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>935.09</t>
+          <t>1170.74</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2017.51</t>
+          <t>2399.46</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2265.21</t>
+          <t>2609.38</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1569.30</t>
+          <t>1895.96</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1682.45</t>
+          <t>1988.95</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1208.04</t>
+          <t>1437.38</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1197.45</t>
+          <t>1425.24</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>973.62</t>
+          <t>1206.31</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>963.18</t>
+          <t>1199.94</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2018.26</t>
+          <t>2399.35</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2265.41</t>
+          <t>2608.40</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>1566.24</t>
+          <t>1893.21</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1681.23</t>
+          <t>1987.10</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1214.24</t>
+          <t>1439.56</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1197.31</t>
+          <t>1428.67</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>975.82</t>
+          <t>1212.14</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>970.97</t>
+          <t>1205.83</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2014.09</t>
+          <t>2396.79</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2261.54</t>
+          <t>2604.98</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1562.25</t>
+          <t>1890.97</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>1677.26</t>
+          <t>1981.40</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1214.32</t>
+          <t>1438.94</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1197.19</t>
+          <t>1428.26</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>980.06</t>
+          <t>1212.43</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>972.03</t>
+          <t>1206.93</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2009.15</t>
+          <t>2394.17</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2255.52</t>
+          <t>2601.70</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>1562.70</t>
+          <t>1889.74</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>1670.80</t>
+          <t>1974.89</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1210.93</t>
+          <t>1438.04</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1192.81</t>
+          <t>1427.52</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>979.58</t>
+          <t>1218.87</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>968.95</t>
+          <t>1207.85</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2004.51</t>
+          <t>2392.57</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2251.82</t>
+          <t>2599.52</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>1559.64</t>
+          <t>1889.86</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1666.53</t>
+          <t>1969.96</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1209.07</t>
+          <t>1439.45</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1198.45</t>
+          <t>1427.62</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>981.21</t>
+          <t>1219.80</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>968.50</t>
+          <t>1208.47</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2004.75</t>
+          <t>2396.28</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2253.37</t>
+          <t>2603.17</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>1561.17</t>
+          <t>1899.42</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>1667.29</t>
+          <t>1970.82</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1211.83</t>
+          <t>1445.32</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1201.22</t>
+          <t>1433.71</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>985.54</t>
+          <t>1225.70</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>977.02</t>
+          <t>1214.56</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2075.18</t>
+          <t>2472.35</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2328.98</t>
+          <t>2684.78</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>1575.02</t>
+          <t>1919.37</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>1691.01</t>
+          <t>1996.70</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1285.04</t>
+          <t>1515.99</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1267.73</t>
+          <t>1505.17</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1047.84</t>
+          <t>1291.43</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1037.55</t>
+          <t>1280.80</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>2601.34</t>
+          <t>3042.82</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>2826.76</t>
+          <t>3204.01</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2018.39</t>
+          <t>2462.52</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2157.62</t>
+          <t>2487.90</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>1613.98</t>
+          <t>1836.22</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>1586.34</t>
+          <t>1804.20</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>1422.35</t>
+          <t>1748.52</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>1421.56</t>
+          <t>1752.81</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1249.09</t>
+          <t>1807.29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1259.14</t>
+          <t>1842.28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>651.24</t>
+          <t>914.19</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1246.49</t>
+          <t>1860.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>837.01</t>
+          <t>1315.12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>840.64</t>
+          <t>1316.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>829.88</t>
+          <t>1266.62</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>868.84</t>
+          <t>1299.59</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1604.98</t>
+          <t>2166.89</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1899.00</t>
+          <t>2439.25</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1269.65</t>
+          <t>1734.92</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1333.78</t>
+          <t>1838.15</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>931.67</t>
+          <t>1324.27</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>933.24</t>
+          <t>1313.46</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>770.45</t>
+          <t>1099.51</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>763.44</t>
+          <t>1100.85</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1630.90</t>
+          <t>2186.03</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1913.70</t>
+          <t>2462.30</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1297.74</t>
+          <t>1791.57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1372.61</t>
+          <t>1863.42</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>989.34</t>
+          <t>1345.69</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>983.63</t>
+          <t>1334.90</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>796.85</t>
+          <t>1128.91</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>791.80</t>
+          <t>1130.27</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>1633.74</t>
+          <t>2186.72</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>1910.34</t>
+          <t>2464.18</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1290.13</t>
+          <t>1781.11</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1376.28</t>
+          <t>1864.83</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>997.46</t>
+          <t>1350.61</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>993.78</t>
+          <t>1341.53</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>802.76</t>
+          <t>1138.09</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>797.48</t>
+          <t>1136.11</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>1632.24</t>
+          <t>2184.97</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>1904.74</t>
+          <t>2463.54</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1285.02</t>
+          <t>1776.91</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1374.15</t>
+          <t>1863.53</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>998.21</t>
+          <t>1353.41</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>998.20</t>
+          <t>1344.52</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>807.71</t>
+          <t>1140.40</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>798.27</t>
+          <t>1138.38</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>1629.49</t>
+          <t>2167.68</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>1899.25</t>
+          <t>2455.06</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1284.81</t>
+          <t>1774.84</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1370.31</t>
+          <t>1861.87</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>996.58</t>
+          <t>1350.79</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>997.59</t>
+          <t>1346.08</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>806.86</t>
+          <t>1147.81</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>797.43</t>
+          <t>1139.92</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>1625.80</t>
+          <t>2154.88</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>1894.69</t>
+          <t>2455.08</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1280.13</t>
+          <t>1774.80</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1365.54</t>
+          <t>1860.96</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>994.87</t>
+          <t>1352.76</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>995.23</t>
+          <t>1347.47</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>805.22</t>
+          <t>1149.20</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>799.84</t>
+          <t>1141.68</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>1623.61</t>
+          <t>2160.16</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>1894.62</t>
+          <t>2460.35</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1277.14</t>
+          <t>1788.45</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1362.01</t>
+          <t>1864.48</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>995.60</t>
+          <t>1359.35</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>988.09</t>
+          <t>1352.86</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>805.63</t>
+          <t>1154.56</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>800.19</t>
+          <t>1147.40</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>1681.01</t>
+          <t>2230.67</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>1966.14</t>
+          <t>2536.76</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1254.41</t>
+          <t>1727.71</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1372.69</t>
+          <t>1888.04</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1024.43</t>
+          <t>1425.50</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1028.15</t>
+          <t>1418.07</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>851.51</t>
+          <t>1217.74</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>841.33</t>
+          <t>1211.50</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2246.13</t>
+          <t>2721.30</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>2526.93</t>
+          <t>3085.40</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>1657.12</t>
+          <t>2162.59</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>1793.95</t>
+          <t>2320.22</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1309.08</t>
+          <t>1717.88</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1293.76</t>
+          <t>1688.12</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1107.75</t>
+          <t>1558.15</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1121.37</t>
+          <t>1567.53</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1336.92</t>
+          <t>1781.77</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1345.39</t>
+          <t>1839.94</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>803.10</t>
+          <t>1364.97</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1333.85</t>
+          <t>1872.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>946.55</t>
+          <t>1317.22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>950.46</t>
+          <t>1318.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>941.15</t>
+          <t>1267.24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>978.86</t>
+          <t>1304.55</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1660.34</t>
+          <t>2116.54</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1970.40</t>
+          <t>2421.28</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1392.12</t>
+          <t>1742.05</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1420.75</t>
+          <t>1833.21</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1011.74</t>
+          <t>1322.75</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1006.55</t>
+          <t>1312.42</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>809.35</t>
+          <t>1100.65</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>812.99</t>
+          <t>1101.79</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1675.62</t>
+          <t>2135.41</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1979.23</t>
+          <t>2427.97</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1397.40</t>
+          <t>1788.42</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1460.22</t>
+          <t>1852.32</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1032.93</t>
+          <t>1342.53</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1030.20</t>
+          <t>1332.89</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>839.28</t>
+          <t>1135.73</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>844.30</t>
+          <t>1135.44</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>1672.99</t>
+          <t>2137.41</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>1973.37</t>
+          <t>2426.92</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1389.19</t>
+          <t>1779.59</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1463.55</t>
+          <t>1854.78</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1037.73</t>
+          <t>1347.23</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1036.34</t>
+          <t>1338.45</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>846.54</t>
+          <t>1144.18</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>850.43</t>
+          <t>1142.73</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>1667.96</t>
+          <t>2149.14</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>1966.08</t>
+          <t>2425.13</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1384.44</t>
+          <t>1779.10</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1462.22</t>
+          <t>1854.23</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1038.69</t>
+          <t>1349.00</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1038.04</t>
+          <t>1345.11</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>852.68</t>
+          <t>1148.02</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>851.94</t>
+          <t>1146.83</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>1663.01</t>
+          <t>2154.05</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>1959.35</t>
+          <t>2426.41</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1385.41</t>
+          <t>1780.46</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1459.41</t>
+          <t>1854.01</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1038.30</t>
+          <t>1350.22</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1038.04</t>
+          <t>1351.87</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>852.71</t>
+          <t>1157.02</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>851.80</t>
+          <t>1152.49</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>1658.90</t>
+          <t>2158.08</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>1953.92</t>
+          <t>2439.21</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1382.07</t>
+          <t>1782.75</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1455.85</t>
+          <t>1854.10</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1037.10</t>
+          <t>1354.97</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1036.93</t>
+          <t>1356.39</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>851.79</t>
+          <t>1160.35</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>854.96</t>
+          <t>1156.30</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>1659.05</t>
+          <t>2164.10</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>1953.72</t>
+          <t>2454.89</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1380.96</t>
+          <t>1797.98</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1453.56</t>
+          <t>1858.96</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1037.86</t>
+          <t>1363.19</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1037.45</t>
+          <t>1363.19</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>852.56</t>
+          <t>1168.38</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>855.64</t>
+          <t>1164.28</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>1725.87</t>
+          <t>2231.54</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2025.27</t>
+          <t>2538.00</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1361.51</t>
+          <t>1738.88</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1458.48</t>
+          <t>1877.90</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1087.35</t>
+          <t>1426.82</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1085.94</t>
+          <t>1428.67</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>898.71</t>
+          <t>1231.19</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>896.95</t>
+          <t>1228.90</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2293.27</t>
+          <t>2708.65</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>2571.14</t>
+          <t>3064.73</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>1707.54</t>
+          <t>2125.13</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>1850.93</t>
+          <t>2294.65</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1354.32</t>
+          <t>1716.95</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1335.52</t>
+          <t>1696.63</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1154.06</t>
+          <t>1538.39</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1165.64</t>
+          <t>1547.75</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1395.43</t>
+          <t>1821.23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1345.75</t>
+          <t>1801.90</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1093.01</t>
+          <t>1479.67</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1392.55</t>
+          <t>1836.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>955.93</t>
+          <t>1316.93</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>960.74</t>
+          <t>1319.83</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>968.99</t>
+          <t>1303.28</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1007.05</t>
+          <t>1337.34</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1703.02</t>
+          <t>2160.90</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1939.06</t>
+          <t>2383.36</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1403.51</t>
+          <t>1780.65</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1418.60</t>
+          <t>1839.94</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1006.72</t>
+          <t>1328.24</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1003.01</t>
+          <t>1318.82</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>823.30</t>
+          <t>1125.72</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>828.15</t>
+          <t>1122.92</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1729.45</t>
+          <t>2184.83</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1936.95</t>
+          <t>2402.50</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1426.32</t>
+          <t>1824.97</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1448.11</t>
+          <t>1872.35</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1020.97</t>
+          <t>1346.43</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1019.46</t>
+          <t>1339.63</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>847.51</t>
+          <t>1150.86</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>854.14</t>
+          <t>1152.04</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>1741.26</t>
+          <t>2192.65</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>1927.52</t>
+          <t>2408.38</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1412.58</t>
+          <t>1815.29</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1445.59</t>
+          <t>1873.84</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1022.04</t>
+          <t>1351.77</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1021.73</t>
+          <t>1344.65</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>851.55</t>
+          <t>1156.69</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>857.12</t>
+          <t>1156.70</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>1746.45</t>
+          <t>2198.32</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>1918.46</t>
+          <t>2412.03</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1403.95</t>
+          <t>1810.32</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1441.38</t>
+          <t>1871.54</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1020.80</t>
+          <t>1353.57</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1023.40</t>
+          <t>1347.10</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>855.61</t>
+          <t>1158.91</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>856.62</t>
+          <t>1158.65</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>1749.14</t>
+          <t>2203.41</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>1910.41</t>
+          <t>2415.17</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1401.77</t>
+          <t>1807.21</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1438.16</t>
+          <t>1869.33</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1019.72</t>
+          <t>1355.07</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1023.37</t>
+          <t>1349.21</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>854.44</t>
+          <t>1166.76</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>855.23</t>
+          <t>1160.29</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>1746.23</t>
+          <t>2208.89</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>1903.54</t>
+          <t>2418.62</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1396.20</t>
+          <t>1806.17</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1434.00</t>
+          <t>1870.20</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1018.51</t>
+          <t>1357.02</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1022.18</t>
+          <t>1352.99</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>852.81</t>
+          <t>1168.64</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>857.49</t>
+          <t>1162.43</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>1739.79</t>
+          <t>2219.19</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>1900.95</t>
+          <t>2425.32</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1392.60</t>
+          <t>1818.22</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1430.84</t>
+          <t>1872.56</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1019.02</t>
+          <t>1363.56</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1022.41</t>
+          <t>1359.76</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>853.35</t>
+          <t>1174.85</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>857.94</t>
+          <t>1169.10</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>1771.96</t>
+          <t>2310.02</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>1965.73</t>
+          <t>2509.38</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>1376.26</t>
+          <t>1759.26</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1438.29</t>
+          <t>1893.09</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1067.86</t>
+          <t>1428.50</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1068.10</t>
+          <t>1424.45</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>898.63</t>
+          <t>1237.83</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>898.65</t>
+          <t>1234.13</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2298.81</t>
+          <t>2722.39</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2482.71</t>
+          <t>3046.27</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>1786.43</t>
+          <t>2186.64</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>1811.42</t>
+          <t>2314.74</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1325.98</t>
+          <t>1699.28</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1313.03</t>
+          <t>1675.37</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1215.19</t>
+          <t>1609.67</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1234.10</t>
+          <t>1626.48</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1465.36</t>
+          <t>1897.00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1500.41</t>
+          <t>1968.48</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1129.51</t>
+          <t>1604.13</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1538.08</t>
+          <t>2002.64</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1148.11</t>
+          <t>1405.81</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1156.90</t>
+          <t>1406.51</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1125.18</t>
+          <t>1351.42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1162.66</t>
+          <t>1390.81</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1804.63</t>
+          <t>2311.66</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1992.98</t>
+          <t>2600.90</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1591.64</t>
+          <t>1850.31</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1561.95</t>
+          <t>1966.77</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1189.75</t>
+          <t>1402.95</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1182.25</t>
+          <t>1389.27</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>962.44</t>
+          <t>1174.44</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>964.18</t>
+          <t>1170.54</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>1813.25</t>
+          <t>2328.33</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>1992.51</t>
+          <t>2616.99</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1547.40</t>
+          <t>1835.88</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1599.13</t>
+          <t>1983.11</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1198.71</t>
+          <t>1418.54</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1197.68</t>
+          <t>1405.11</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>985.86</t>
+          <t>1196.53</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>989.54</t>
+          <t>1195.09</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>1810.92</t>
+          <t>2329.05</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>1982.91</t>
+          <t>2616.48</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1537.91</t>
+          <t>1821.14</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1600.03</t>
+          <t>1978.28</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1199.82</t>
+          <t>1420.46</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1199.72</t>
+          <t>1407.17</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>990.04</t>
+          <t>1199.47</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>992.65</t>
+          <t>1196.63</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>1807.81</t>
+          <t>2327.69</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>1973.66</t>
+          <t>2614.06</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1531.93</t>
+          <t>1812.11</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1598.40</t>
+          <t>1971.87</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1204.28</t>
+          <t>1420.07</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1199.28</t>
+          <t>1407.02</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>994.81</t>
+          <t>1199.41</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>992.56</t>
+          <t>1196.20</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>1804.77</t>
+          <t>2326.26</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>1967.64</t>
+          <t>2611.88</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1532.32</t>
+          <t>1809.77</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1596.17</t>
+          <t>1967.59</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1203.06</t>
+          <t>1419.72</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1198.30</t>
+          <t>1406.73</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>994.17</t>
+          <t>1205.28</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>991.68</t>
+          <t>1195.86</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>1801.69</t>
+          <t>2325.68</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>1964.23</t>
+          <t>2610.70</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1528.52</t>
+          <t>1808.58</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1592.73</t>
+          <t>1963.99</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1196.08</t>
+          <t>1420.22</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1196.90</t>
+          <t>1407.29</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>992.91</t>
+          <t>1205.42</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>994.58</t>
+          <t>1196.15</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>1800.70</t>
+          <t>2329.97</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>1963.24</t>
+          <t>2614.95</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>1525.92</t>
+          <t>1817.83</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1587.98</t>
+          <t>1965.35</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1197.11</t>
+          <t>1426.46</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1197.47</t>
+          <t>1413.61</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>992.64</t>
+          <t>1203.32</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>994.01</t>
+          <t>1200.72</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>1861.63</t>
+          <t>2402.71</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2022.78</t>
+          <t>2694.56</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>1541.05</t>
+          <t>1814.08</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1572.99</t>
+          <t>1990.54</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1250.13</t>
+          <t>1498.98</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1243.91</t>
+          <t>1487.34</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1035.32</t>
+          <t>1263.38</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1031.03</t>
+          <t>1256.22</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2400.21</t>
+          <t>2902.64</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2510.15</t>
+          <t>3208.66</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>1889.99</t>
+          <t>2257.51</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>1909.32</t>
+          <t>2464.19</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1399.17</t>
+          <t>1828.86</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1384.35</t>
+          <t>1797.16</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>1302.66</t>
+          <t>1685.21</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>1315.28</t>
+          <t>1689.67</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1840.88</t>
+          <t>1937.86</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1851.92</t>
+          <t>1973.31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1317.11</t>
+          <t>1755.95</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1872.50</t>
+          <t>1986.69</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1335.26</t>
+          <t>1436.13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1336.42</t>
+          <t>1436.73</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1420.20</t>
+          <t>1419.37</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1336.15</t>
+          <t>1466.69</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2332.16</t>
+          <t>2369.87</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2486.93</t>
+          <t>2557.89</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1885.50</t>
+          <t>1984.48</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1904.02</t>
+          <t>1927.02</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1380.27</t>
+          <t>1430.00</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1367.00</t>
+          <t>1416.14</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1134.51</t>
+          <t>1285.51</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1130.15</t>
+          <t>1277.54</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2351.39</t>
+          <t>2387.35</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2504.86</t>
+          <t>2575.51</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1933.52</t>
+          <t>1912.70</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1935.06</t>
+          <t>1938.73</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1399.57</t>
+          <t>1414.99</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1387.22</t>
+          <t>1411.34</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1159.03</t>
+          <t>1305.17</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1155.63</t>
+          <t>1301.77</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2352.76</t>
+          <t>2358.58</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2521.57</t>
+          <t>2575.49</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>1934.06</t>
+          <t>1899.60</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>1936.36</t>
+          <t>1933.71</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1400.39</t>
+          <t>1414.48</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1391.30</t>
+          <t>1402.56</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1162.12</t>
+          <t>1305.35</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1157.45</t>
+          <t>1301.24</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2348.64</t>
+          <t>2356.61</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2512.39</t>
+          <t>2572.70</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>1931.66</t>
+          <t>1891.40</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>1930.76</t>
+          <t>1922.58</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1406.74</t>
+          <t>1414.02</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1388.76</t>
+          <t>1401.26</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1270.88</t>
+          <t>1300.53</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1156.00</t>
+          <t>1297.79</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2346.07</t>
+          <t>2353.88</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2486.06</t>
+          <t>2570.45</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>1930.12</t>
+          <t>1886.00</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>1924.62</t>
+          <t>1916.32</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1382.71</t>
+          <t>1413.37</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1394.94</t>
+          <t>1400.65</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1272.78</t>
+          <t>1259.32</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1153.71</t>
+          <t>1292.79</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2343.76</t>
+          <t>2352.03</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2481.58</t>
+          <t>2568.39</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>1899.01</t>
+          <t>1881.99</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1922.56</t>
+          <t>1911.53</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1379.89</t>
+          <t>1413.48</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1370.74</t>
+          <t>1400.81</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1271.48</t>
+          <t>1257.64</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1263.77</t>
+          <t>1288.11</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2346.11</t>
+          <t>2354.52</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2482.77</t>
+          <t>2571.54</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>1899.62</t>
+          <t>1888.42</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>1923.86</t>
+          <t>1914.99</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1382.98</t>
+          <t>1418.97</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1373.70</t>
+          <t>1406.35</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1222.57</t>
+          <t>1259.20</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1265.84</t>
+          <t>1252.81</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>2395.83</t>
+          <t>2430.72</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2555.41</t>
+          <t>2647.95</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>1908.95</t>
+          <t>1895.74</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>1939.47</t>
+          <t>1935.71</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1446.33</t>
+          <t>1485.94</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1437.05</t>
+          <t>1473.24</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1253.65</t>
+          <t>1315.95</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1243.17</t>
+          <t>1307.87</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>2773.88</t>
+          <t>3057.25</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3205.17</t>
+          <t>3230.95</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>2335.56</t>
+          <t>2395.16</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2502.12</t>
+          <t>2425.48</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>1824.23</t>
+          <t>1834.19</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>1801.41</t>
+          <t>1804.53</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>1665.21</t>
+          <t>1786.23</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>1671.31</t>
+          <t>1800.50</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2008.25</t>
+          <t>1947.66</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1923.29</t>
+          <t>1995.63</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1033.35</t>
+          <t>1442.65</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1924.30</t>
+          <t>2000.78</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1394.17</t>
+          <t>1429.71</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1395.23</t>
+          <t>1429.98</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1438.38</t>
+          <t>1449.89</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1462.09</t>
+          <t>1477.96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2592.06</t>
+          <t>2478.88</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2577.13</t>
+          <t>2626.53</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2140.88</t>
+          <t>2096.82</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1943.23</t>
+          <t>1954.67</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1456.52</t>
+          <t>1432.84</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1443.93</t>
+          <t>1419.08</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1273.92</t>
+          <t>1261.84</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1267.89</t>
+          <t>1262.22</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2651.90</t>
+          <t>2496.31</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2591.34</t>
+          <t>2639.64</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2008.11</t>
+          <t>1902.48</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>1972.88</t>
+          <t>1972.84</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1470.12</t>
+          <t>1449.10</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1457.56</t>
+          <t>1435.34</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1305.81</t>
+          <t>1284.17</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1303.57</t>
+          <t>1292.16</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2584.67</t>
+          <t>2497.61</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2585.75</t>
+          <t>2634.24</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>1988.60</t>
+          <t>1896.84</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>1965.51</t>
+          <t>1968.21</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1482.78</t>
+          <t>1451.39</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1469.16</t>
+          <t>1437.66</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1291.91</t>
+          <t>1287.87</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1288.74</t>
+          <t>1295.71</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>2579.13</t>
+          <t>2496.36</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2577.40</t>
+          <t>2629.91</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>1951.27</t>
+          <t>1891.01</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>1955.13</t>
+          <t>1961.37</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1480.20</t>
+          <t>1450.96</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1466.53</t>
+          <t>1437.38</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1286.79</t>
+          <t>1286.69</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1280.19</t>
+          <t>1295.56</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>2574.13</t>
+          <t>2494.69</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2450.47</t>
+          <t>2625.63</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>1948.97</t>
+          <t>1885.79</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>1941.39</t>
+          <t>1955.91</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1477.52</t>
+          <t>1450.44</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1463.80</t>
+          <t>1436.76</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1284.00</t>
+          <t>1292.76</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1271.50</t>
+          <t>1294.60</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2582.18</t>
+          <t>2507.25</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2449.57</t>
+          <t>2622.48</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>1943.71</t>
+          <t>1881.83</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1852.32</t>
+          <t>1956.28</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1419.99</t>
+          <t>1450.39</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1405.24</t>
+          <t>1436.74</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1282.65</t>
+          <t>1307.38</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1276.34</t>
+          <t>1293.50</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>2577.67</t>
+          <t>2510.40</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2454.87</t>
+          <t>2618.96</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>1950.24</t>
+          <t>1889.58</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>1845.08</t>
+          <t>1957.48</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1382.45</t>
+          <t>1455.61</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1369.84</t>
+          <t>1442.06</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1285.99</t>
+          <t>1290.44</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1280.14</t>
+          <t>1298.77</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>2666.05</t>
+          <t>2578.23</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2540.07</t>
+          <t>2699.54</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2089.32</t>
+          <t>2059.05</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>1873.76</t>
+          <t>1983.34</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1474.63</t>
+          <t>1519.23</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1476.09</t>
+          <t>1505.64</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1347.18</t>
+          <t>1349.54</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1332.96</t>
+          <t>1337.82</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3257.54</t>
+          <t>3100.23</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3101.18</t>
+          <t>3310.98</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>2683.95</t>
+          <t>2596.50</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2289.40</t>
+          <t>2492.34</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>1783.05</t>
+          <t>1858.42</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>1664.66</t>
+          <t>1827.46</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>1907.53</t>
+          <t>1879.55</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>1908.70</t>
+          <t>1883.30</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1987.55</t>
+          <t>1971.60</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1712.76</t>
+          <t>2029.02</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>468.87</t>
+          <t>690.51</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1693.38</t>
+          <t>1940.05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1252.12</t>
+          <t>1405.55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1251.07</t>
+          <t>1405.69</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1441.13</t>
+          <t>1461.92</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1481.19</t>
+          <t>1481.15</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2659.56</t>
+          <t>2538.15</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2330.90</t>
+          <t>2723.84</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2202.11</t>
+          <t>2207.94</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1826.20</t>
+          <t>2029.86</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1419.97</t>
+          <t>1463.36</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1405.76</t>
+          <t>1448.16</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1289.36</t>
+          <t>1332.46</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1293.49</t>
+          <t>1319.86</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2684.14</t>
+          <t>2538.92</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2365.58</t>
+          <t>2749.30</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2039.32</t>
+          <t>1984.02</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1924.45</t>
+          <t>2053.08</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1441.91</t>
+          <t>1483.86</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1427.62</t>
+          <t>1466.76</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1319.03</t>
+          <t>1353.95</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1320.90</t>
+          <t>1347.12</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2670.89</t>
+          <t>2530.89</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2345.21</t>
+          <t>2748.79</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2019.98</t>
+          <t>1981.35</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>1906.45</t>
+          <t>2047.50</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1441.30</t>
+          <t>1482.06</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1427.03</t>
+          <t>1466.98</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1310.90</t>
+          <t>1356.62</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1316.32</t>
+          <t>1349.04</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2631.07</t>
+          <t>2528.26</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2333.37</t>
+          <t>2744.33</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>1991.73</t>
+          <t>1973.93</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>1757.93</t>
+          <t>2038.81</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1415.45</t>
+          <t>1466.97</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1396.41</t>
+          <t>1452.27</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1316.42</t>
+          <t>1356.29</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1303.15</t>
+          <t>1347.98</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2617.99</t>
+          <t>2525.38</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2322.67</t>
+          <t>2739.68</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>1972.42</t>
+          <t>1966.13</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>1746.67</t>
+          <t>2029.36</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1403.58</t>
+          <t>1465.98</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1390.17</t>
+          <t>1451.29</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1316.34</t>
+          <t>1359.79</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1303.03</t>
+          <t>1347.46</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2615.50</t>
+          <t>2522.61</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2314.89</t>
+          <t>2736.20</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>1930.59</t>
+          <t>1959.62</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1747.68</t>
+          <t>2023.21</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1399.21</t>
+          <t>1465.82</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1385.83</t>
+          <t>1451.13</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1316.17</t>
+          <t>1359.85</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1308.43</t>
+          <t>1346.52</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2606.88</t>
+          <t>2523.83</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2313.35</t>
+          <t>2738.51</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>1912.55</t>
+          <t>1962.71</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>1749.37</t>
+          <t>2022.35</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1400.77</t>
+          <t>1471.38</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1387.46</t>
+          <t>1456.70</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1320.44</t>
+          <t>1361.54</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1313.12</t>
+          <t>1349.70</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>2781.32</t>
+          <t>2589.15</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2392.56</t>
+          <t>2823.84</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2172.82</t>
+          <t>2108.37</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>1750.01</t>
+          <t>2052.01</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1450.21</t>
+          <t>1540.59</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1437.02</t>
+          <t>1525.79</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1389.34</t>
+          <t>1412.07</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1374.25</t>
+          <t>1398.54</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3440.58</t>
+          <t>3339.25</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3130.69</t>
+          <t>3360.55</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>2755.11</t>
+          <t>2680.13</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2255.61</t>
+          <t>2499.20</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>1750.92</t>
+          <t>1963.78</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>1722.62</t>
+          <t>1925.44</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2055.44</t>
+          <t>2048.50</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2060.31</t>
+          <t>2057.84</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1249.09</t>
+          <t>1781.77</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>132.77</t>
+          <t>1801.90</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>189.78</t>
+          <t>501.08</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>131.66</t>
+          <t>1836.88</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>144.20</t>
+          <t>1315.12</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>143.89</t>
+          <t>1316.08</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>829.88</t>
+          <t>1266.62</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>868.84</t>
+          <t>1299.59</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1604.98</t>
+          <t>2116.54</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1899.00</t>
+          <t>2383.36</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1269.65</t>
+          <t>1734.92</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1333.78</t>
+          <t>1833.21</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>931.67</t>
+          <t>1322.75</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>933.24</t>
+          <t>1312.42</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>770.45</t>
+          <t>1099.51</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>763.44</t>
+          <t>1100.85</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>1630.90</t>
+          <t>2135.41</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>1913.70</t>
+          <t>2402.50</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1297.74</t>
+          <t>1788.42</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1372.61</t>
+          <t>1852.32</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>989.34</t>
+          <t>1342.53</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>983.63</t>
+          <t>1332.89</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>796.85</t>
+          <t>1128.91</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>791.80</t>
+          <t>1130.27</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>1633.74</t>
+          <t>2137.41</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>1910.34</t>
+          <t>2408.38</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1290.13</t>
+          <t>1779.59</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1376.28</t>
+          <t>1854.78</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>997.46</t>
+          <t>1347.23</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>993.78</t>
+          <t>1338.45</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>802.76</t>
+          <t>1138.09</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>797.48</t>
+          <t>1136.11</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>1632.24</t>
+          <t>2149.14</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>1904.74</t>
+          <t>2412.03</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1285.02</t>
+          <t>1776.91</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1374.15</t>
+          <t>1854.23</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>998.21</t>
+          <t>1349.00</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>998.20</t>
+          <t>1344.52</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>807.71</t>
+          <t>1140.40</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>798.27</t>
+          <t>1138.38</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>1629.49</t>
+          <t>2154.05</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>1899.25</t>
+          <t>2415.17</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1284.81</t>
+          <t>1774.84</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>1370.31</t>
+          <t>1854.01</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>996.58</t>
+          <t>1350.22</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>997.59</t>
+          <t>1346.08</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>806.86</t>
+          <t>1147.81</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>797.43</t>
+          <t>1139.92</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>1625.80</t>
+          <t>2154.88</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>1894.69</t>
+          <t>2418.62</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1280.13</t>
+          <t>1774.80</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1365.54</t>
+          <t>1854.10</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>994.87</t>
+          <t>1352.76</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>995.23</t>
+          <t>1347.47</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>805.22</t>
+          <t>1149.20</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>799.84</t>
+          <t>1141.68</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>1623.61</t>
+          <t>2160.16</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>1894.62</t>
+          <t>2425.32</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>1277.14</t>
+          <t>1788.45</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>1362.01</t>
+          <t>1858.96</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>995.60</t>
+          <t>1359.35</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>988.09</t>
+          <t>1352.86</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>805.63</t>
+          <t>1154.56</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>800.19</t>
+          <t>1147.40</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>1681.01</t>
+          <t>2230.67</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>1965.73</t>
+          <t>2509.38</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>1254.41</t>
+          <t>1727.71</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>1372.69</t>
+          <t>1877.90</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>1024.43</t>
+          <t>1425.50</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>1028.15</t>
+          <t>1418.07</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>851.51</t>
+          <t>1217.74</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>841.33</t>
+          <t>1211.50</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>2246.13</t>
+          <t>2708.65</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>2482.71</t>
+          <t>3046.27</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>1657.12</t>
+          <t>2125.13</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>1793.95</t>
+          <t>2294.65</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>1309.08</t>
+          <t>1699.28</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>1293.76</t>
+          <t>1675.37</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1107.75</t>
+          <t>1538.39</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1121.37</t>
+          <t>1547.75</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2008.25</t>
+          <t>1982.84</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1923.29</t>
+          <t>2029.02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1317.11</t>
+          <t>1755.95</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1924.30</t>
+          <t>2002.64</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1394.17</t>
+          <t>1436.13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1395.23</t>
+          <t>1436.73</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1441.13</t>
+          <t>1461.92</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1481.19</t>
+          <t>1488.45</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2659.56</t>
+          <t>2641.77</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2577.13</t>
+          <t>2723.84</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2202.11</t>
+          <t>2207.94</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1943.23</t>
+          <t>2029.86</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1456.52</t>
+          <t>1463.36</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1443.93</t>
+          <t>1448.16</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1289.36</t>
+          <t>1332.46</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1293.49</t>
+          <t>1319.86</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2684.14</t>
+          <t>2666.17</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2591.34</t>
+          <t>2749.30</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2039.32</t>
+          <t>1984.02</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>1972.88</t>
+          <t>2053.08</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1470.12</t>
+          <t>1483.86</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1457.56</t>
+          <t>1466.76</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1319.03</t>
+          <t>1354.70</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1320.90</t>
+          <t>1348.07</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2670.89</t>
+          <t>2657.07</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2585.75</t>
+          <t>2748.79</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2019.98</t>
+          <t>1981.35</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>1965.51</t>
+          <t>2047.50</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1482.78</t>
+          <t>1500.96</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1469.16</t>
+          <t>1466.98</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1315.83</t>
+          <t>1363.36</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1316.32</t>
+          <t>1351.93</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>2631.07</t>
+          <t>2638.69</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2577.40</t>
+          <t>2744.33</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>1991.73</t>
+          <t>1973.93</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>1955.13</t>
+          <t>2038.81</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1480.20</t>
+          <t>1475.79</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1466.53</t>
+          <t>1460.28</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1321.93</t>
+          <t>1363.47</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1308.57</t>
+          <t>1352.19</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2617.99</t>
+          <t>2619.52</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2486.06</t>
+          <t>2739.68</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>1972.42</t>
+          <t>1966.13</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>1941.39</t>
+          <t>2029.36</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1477.52</t>
+          <t>1473.65</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1463.80</t>
+          <t>1458.18</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1320.97</t>
+          <t>1361.64</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1307.87</t>
+          <t>1351.84</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2615.50</t>
+          <t>2630.74</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2481.58</t>
+          <t>2736.20</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>1953.02</t>
+          <t>1959.81</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1922.56</t>
+          <t>2023.21</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1419.99</t>
+          <t>1481.07</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1405.24</t>
+          <t>1465.60</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1320.68</t>
+          <t>1361.32</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1313.86</t>
+          <t>1352.14</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>2606.88</t>
+          <t>2630.01</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2482.77</t>
+          <t>2738.51</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>1950.94</t>
+          <t>1962.71</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>1923.86</t>
+          <t>2022.35</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1400.77</t>
+          <t>1485.45</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1387.46</t>
+          <t>1470.02</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1325.28</t>
+          <t>1365.10</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1318.65</t>
+          <t>1352.11</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>2781.32</t>
+          <t>2705.79</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>2555.41</t>
+          <t>2823.84</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2172.82</t>
+          <t>2170.79</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>1939.47</t>
+          <t>2052.01</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1474.63</t>
+          <t>1558.87</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1476.09</t>
+          <t>1541.97</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1389.34</t>
+          <t>1412.07</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1374.25</t>
+          <t>1398.54</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>3440.58</t>
+          <t>3339.25</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3205.17</t>
+          <t>3482.96</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>2755.11</t>
+          <t>2680.13</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2502.12</t>
+          <t>2499.20</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>1824.23</t>
+          <t>1963.78</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>1801.41</t>
+          <t>1925.44</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2055.44</t>
+          <t>2055.03</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2060.31</t>
+          <t>2059.54</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_FairbanksTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_FairbanksTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1979.04</t>
+          <t>1991.96</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1931.22</t>
+          <t>1782.47</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>684.91</t>
+          <t>988.40</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1922.76</t>
+          <t>1746.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1395.85</t>
+          <t>1300.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1395.64</t>
+          <t>1299.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1457.57</t>
+          <t>1456.31</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1488.45</t>
+          <t>1487.13</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2616.97</t>
+          <t>2661.01</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2606.63</t>
+          <t>2471.25</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2199.14</t>
+          <t>2179.82</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1949.65</t>
+          <t>1852.15</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1440.27</t>
+          <t>1444.94</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1425.28</t>
+          <t>1431.92</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1330.88</t>
+          <t>1304.39</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1316.94</t>
+          <t>1293.62</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2642.89</t>
+          <t>2687.27</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2659.48</t>
+          <t>2518.43</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1975.75</t>
+          <t>1998.86</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1946.46</t>
+          <t>1892.78</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1468.92</t>
+          <t>1466.64</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1453.67</t>
+          <t>1452.52</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1354.70</t>
+          <t>1324.53</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1348.07</t>
+          <t>1326.28</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2635.41</t>
+          <t>2683.22</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2651.92</t>
+          <t>2522.08</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1974.25</t>
+          <t>1986.87</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1945.06</t>
+          <t>1892.95</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1473.76</t>
+          <t>1465.67</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1421.63</t>
+          <t>1450.66</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1363.36</t>
+          <t>1336.93</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1351.93</t>
+          <t>1357.69</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2608.04</t>
+          <t>2669.78</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2640.85</t>
+          <t>2517.51</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1969.35</t>
+          <t>2039.22</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1940.30</t>
+          <t>1886.48</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1473.43</t>
+          <t>1460.24</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1458.91</t>
+          <t>1445.08</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1363.47</t>
+          <t>1356.82</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1352.19</t>
+          <t>1336.18</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2600.44</t>
+          <t>2683.88</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2631.73</t>
+          <t>2511.71</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>1964.27</t>
+          <t>1998.06</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1935.73</t>
+          <t>1872.32</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1472.43</t>
+          <t>1475.71</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1457.58</t>
+          <t>1459.99</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1361.64</t>
+          <t>1386.57</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1351.84</t>
+          <t>1355.26</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2630.74</t>
+          <t>2674.69</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>2624.25</t>
+          <t>2505.31</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>1959.81</t>
+          <t>2026.44</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1934.61</t>
+          <t>1968.00</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1472.29</t>
+          <t>1470.74</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1457.17</t>
+          <t>1451.42</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1361.32</t>
+          <t>1336.79</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1352.14</t>
+          <t>1334.86</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2630.01</t>
+          <t>2671.09</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>2623.34</t>
+          <t>2504.62</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>1960.98</t>
+          <t>2037.07</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1935.95</t>
+          <t>1953.74</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1477.24</t>
+          <t>1472.51</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1462.73</t>
+          <t>1452.71</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1365.10</t>
+          <t>1329.93</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1352.11</t>
+          <t>1321.44</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2705.79</t>
+          <t>2743.31</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>2700.16</t>
+          <t>2590.05</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2153.00</t>
+          <t>2136.54</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1960.72</t>
+          <t>1986.73</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1552.06</t>
+          <t>1549.86</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1537.96</t>
+          <t>1529.61</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1403.55</t>
+          <t>1392.31</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1390.12</t>
+          <t>1381.86</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3332.48</t>
+          <t>3235.48</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>3254.59</t>
+          <t>3111.80</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>2616.96</t>
+          <t>2691.89</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>2402.73</t>
+          <t>2306.77</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1838.54</t>
+          <t>1785.04</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1800.53</t>
+          <t>1749.02</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2055.03</t>
+          <t>1946.81</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2059.54</t>
+          <t>1953.85</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1982.84</t>
+          <t>2023.95</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1964.81</t>
+          <t>1773.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>634.95</t>
+          <t>733.68</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1914.73</t>
+          <t>1807.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1375.56</t>
+          <t>1342.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1375.41</t>
+          <t>1342.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1446.12</t>
+          <t>1474.28</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1458.36</t>
+          <t>1495.83</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2641.77</t>
+          <t>2669.74</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2671.65</t>
+          <t>2618.98</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2173.90</t>
+          <t>2163.33</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2001.83</t>
+          <t>1980.27</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1451.11</t>
+          <t>1485.00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1434.80</t>
+          <t>1469.94</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1298.29</t>
+          <t>1302.04</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1287.41</t>
+          <t>1311.65</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2666.17</t>
+          <t>2690.23</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2705.26</t>
+          <t>2640.58</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1971.66</t>
+          <t>1981.35</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2023.16</t>
+          <t>2001.15</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1474.81</t>
+          <t>1501.69</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1459.35</t>
+          <t>1486.64</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1324.56</t>
+          <t>1347.62</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1326.57</t>
+          <t>1344.77</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2657.07</t>
+          <t>2686.86</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2705.20</t>
+          <t>2638.46</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1968.93</t>
+          <t>1981.53</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2019.79</t>
+          <t>1995.96</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1500.96</t>
+          <t>1501.72</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1462.20</t>
+          <t>1486.69</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1329.06</t>
+          <t>1360.09</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1328.49</t>
+          <t>1352.41</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2638.69</t>
+          <t>2677.18</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2699.79</t>
+          <t>2631.80</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1963.63</t>
+          <t>1980.23</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2016.86</t>
+          <t>1989.01</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1475.79</t>
+          <t>1498.22</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1460.28</t>
+          <t>1483.13</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1329.12</t>
+          <t>1361.63</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1326.20</t>
+          <t>1352.79</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2619.52</t>
+          <t>2669.55</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2694.67</t>
+          <t>2624.86</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>1958.33</t>
+          <t>1981.81</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2007.86</t>
+          <t>1982.14</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1473.65</t>
+          <t>1494.36</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1458.18</t>
+          <t>1479.15</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1332.85</t>
+          <t>1359.57</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1324.87</t>
+          <t>1355.93</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2614.01</t>
+          <t>2664.55</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>2691.83</t>
+          <t>2619.77</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>1954.14</t>
+          <t>1980.76</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1999.31</t>
+          <t>1976.60</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>1481.07</t>
+          <t>1492.02</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>1465.60</t>
+          <t>1476.73</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1331.53</t>
+          <t>1357.19</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1322.52</t>
+          <t>1353.11</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>2616.12</t>
+          <t>2665.23</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>2695.92</t>
+          <t>2620.57</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>1961.04</t>
+          <t>1977.83</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>1999.89</t>
+          <t>1974.54</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>1485.45</t>
+          <t>1495.54</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>1470.02</t>
+          <t>1476.24</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1334.99</t>
+          <t>1344.71</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1323.22</t>
+          <t>1351.30</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>2690.65</t>
+          <t>2736.24</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>2795.22</t>
+          <t>2692.69</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>2170.79</t>
+          <t>2141.78</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>2031.22</t>
+          <t>1993.70</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>1558.87</t>
+          <t>1547.39</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>1541.97</t>
+          <t>1527.14</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1386.53</t>
+          <t>1392.52</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1376.37</t>
+          <t>1387.54</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>3187.56</t>
+          <t>3318.44</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>3482.96</t>
+          <t>3052.18</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>2623.83</t>
+          <t>2664.81</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>2481.64</t>
+          <t>2248.32</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>1928.73</t>
+          <t>1764.49</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>1890.80</t>
+          <t>1735.56</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2018.86</t>
+          <t>1999.10</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2024.09</t>
+          <t>2004.08</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1952.23</t>
+          <t>1956.02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1953.25</t>
+          <t>1952.59</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>501.08</t>
+          <t>610.50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1935.13</t>
+          <t>1895.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1406.58</t>
+          <t>1375.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1401.35</t>
+          <t>1375.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1384.53</t>
+          <t>1371.91</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1404.51</t>
+          <t>1395.82</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2517.98</t>
+          <t>2658.32</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2642.15</t>
+          <t>2738.31</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2056.83</t>
+          <t>2110.46</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1954.69</t>
+          <t>2009.27</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1440.67</t>
+          <t>1447.94</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1426.20</t>
+          <t>1431.21</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1259.52</t>
+          <t>1277.27</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1250.51</t>
+          <t>1274.07</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2544.24</t>
+          <t>2681.99</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2683.99</t>
+          <t>2768.73</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1917.34</t>
+          <t>2015.06</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1981.70</t>
+          <t>2058.15</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1459.64</t>
+          <t>1517.90</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1443.60</t>
+          <t>1479.15</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1285.56</t>
+          <t>1297.05</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1280.43</t>
+          <t>1292.19</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2539.13</t>
+          <t>2675.72</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2699.82</t>
+          <t>2763.91</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1911.11</t>
+          <t>2010.48</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1982.31</t>
+          <t>2062.03</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1471.15</t>
+          <t>1458.22</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1454.78</t>
+          <t>1489.96</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1288.33</t>
+          <t>1305.58</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1282.54</t>
+          <t>1294.32</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2530.31</t>
+          <t>2668.93</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2696.98</t>
+          <t>2754.92</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1915.48</t>
+          <t>1996.51</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1970.00</t>
+          <t>2050.67</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1465.54</t>
+          <t>1475.93</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1449.45</t>
+          <t>1439.32</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1285.51</t>
+          <t>1304.77</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1279.59</t>
+          <t>1290.89</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2522.17</t>
+          <t>2657.23</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2682.64</t>
+          <t>2747.12</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>1908.85</t>
+          <t>1999.50</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1958.57</t>
+          <t>2038.51</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1469.20</t>
+          <t>1507.64</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1454.60</t>
+          <t>1489.07</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1287.08</t>
+          <t>1313.11</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1275.66</t>
+          <t>1295.40</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2520.41</t>
+          <t>2651.48</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2676.17</t>
+          <t>2739.70</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>1903.84</t>
+          <t>1993.93</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1938.15</t>
+          <t>2030.52</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1473.04</t>
+          <t>1502.88</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1436.30</t>
+          <t>1487.51</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1279.93</t>
+          <t>1285.44</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1271.74</t>
+          <t>1281.27</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2523.47</t>
+          <t>2662.72</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2677.20</t>
+          <t>2739.42</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>1907.51</t>
+          <t>1991.11</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1933.14</t>
+          <t>2028.41</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1456.10</t>
+          <t>1505.76</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1438.69</t>
+          <t>1489.99</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1264.62</t>
+          <t>1284.74</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1268.38</t>
+          <t>1281.78</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2609.39</t>
+          <t>2733.55</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2757.52</t>
+          <t>2820.70</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2049.87</t>
+          <t>2093.51</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1959.65</t>
+          <t>2056.45</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1525.94</t>
+          <t>1576.96</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1509.44</t>
+          <t>1561.27</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1328.97</t>
+          <t>1337.51</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1313.88</t>
+          <t>1320.49</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3314.42</t>
+          <t>3402.07</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3345.22</t>
+          <t>3380.49</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2613.14</t>
+          <t>2686.72</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2471.80</t>
+          <t>2508.00</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1893.47</t>
+          <t>1928.77</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1853.40</t>
+          <t>1891.91</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>1929.93</t>
+          <t>2001.83</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>1929.00</t>
+          <t>2016.77</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1950.49</t>
+          <t>1888.50</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1960.82</t>
+          <t>2000.04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>607.28</t>
+          <t>380.68</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1960.65</t>
+          <t>1865.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1383.48</t>
+          <t>1339.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1383.86</t>
+          <t>1338.45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1391.25</t>
+          <t>1339.42</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1416.41</t>
+          <t>1364.05</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2450.16</t>
+          <t>2633.12</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2635.48</t>
+          <t>2691.24</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1994.23</t>
+          <t>2120.67</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1964.96</t>
+          <t>1999.12</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1423.04</t>
+          <t>1488.58</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1408.63</t>
+          <t>1473.72</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1218.76</t>
+          <t>1277.65</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1210.03</t>
+          <t>1278.50</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2472.65</t>
+          <t>2648.82</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2658.73</t>
+          <t>2734.31</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1925.82</t>
+          <t>1946.71</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1985.15</t>
+          <t>2017.33</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1453.40</t>
+          <t>1504.59</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1438.89</t>
+          <t>1490.11</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1244.70</t>
+          <t>1301.81</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1240.52</t>
+          <t>1299.14</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2471.79</t>
+          <t>2637.51</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2656.05</t>
+          <t>2738.84</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1908.91</t>
+          <t>1889.59</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1977.85</t>
+          <t>2008.49</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1461.15</t>
+          <t>1500.40</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1446.64</t>
+          <t>1487.52</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1249.03</t>
+          <t>1230.16</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1244.30</t>
+          <t>1295.62</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2467.68</t>
+          <t>2624.21</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2650.11</t>
+          <t>2736.39</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1895.31</t>
+          <t>1883.36</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1968.43</t>
+          <t>1995.65</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1459.56</t>
+          <t>1421.07</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1445.48</t>
+          <t>1409.66</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1230.98</t>
+          <t>1226.71</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1233.26</t>
+          <t>1214.40</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2463.41</t>
+          <t>2536.95</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2644.66</t>
+          <t>2732.57</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>1887.11</t>
+          <t>1881.32</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1959.71</t>
+          <t>1983.53</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1456.63</t>
+          <t>1424.95</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1442.38</t>
+          <t>1407.70</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1235.04</t>
+          <t>1222.85</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1230.76</t>
+          <t>1217.40</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2460.28</t>
+          <t>2528.94</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2640.49</t>
+          <t>2729.50</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>1880.43</t>
+          <t>1877.16</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1952.76</t>
+          <t>1967.64</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1454.77</t>
+          <t>1423.60</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1440.46</t>
+          <t>1407.35</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1230.61</t>
+          <t>1220.05</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1229.31</t>
+          <t>1214.59</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2447.13</t>
+          <t>2528.88</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2619.29</t>
+          <t>2732.55</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>1873.39</t>
+          <t>1875.66</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1945.35</t>
+          <t>1968.32</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1445.18</t>
+          <t>1429.94</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1430.80</t>
+          <t>1415.59</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1238.20</t>
+          <t>1224.91</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1233.17</t>
+          <t>1216.11</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2527.09</t>
+          <t>2617.08</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2704.05</t>
+          <t>2823.03</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>1957.79</t>
+          <t>1961.91</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>1972.67</t>
+          <t>1996.81</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1517.77</t>
+          <t>1502.55</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1503.21</t>
+          <t>1489.74</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1308.01</t>
+          <t>1299.20</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1294.82</t>
+          <t>1284.87</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3169.10</t>
+          <t>3293.23</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3286.19</t>
+          <t>3500.72</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2477.81</t>
+          <t>2591.39</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2458.71</t>
+          <t>2516.24</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1858.69</t>
+          <t>1880.40</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1825.28</t>
+          <t>1841.41</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1831.77</t>
+          <t>1852.52</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1846.31</t>
+          <t>1861.66</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,402 +2685,402 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1942.59</t>
+          <t>1666.61</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1943.55</t>
+          <t>1771.90</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>894.08</t>
+          <t>341.52</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1993.98</t>
+          <t>1749.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1397.61</t>
+          <t>1225.46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>1226.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1193.62</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1219.00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2184.68</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2487.44</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1722.65</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1836.02</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1288.60</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1277.95</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1075.17</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1087.58</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2215.15</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2520.11</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>1717.30</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>1868.26</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>1313.62</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>1304.54</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>1101.45</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>1049.96</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2217.74</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2525.94</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>1713.75</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>1872.97</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>1321.76</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>1313.51</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>1094.66</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>1056.66</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>2214.46</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>2526.16</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>1742.43</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>1871.67</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>1324.11</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>1316.25</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>1141.79</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>1057.96</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>2210.41</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>2525.18</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>1714.35</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>1869.07</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>1324.80</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>1317.00</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>1106.47</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>1114.29</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>2207.21</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>2524.58</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>1708.51</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>1866.98</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>1325.55</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>1317.62</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>1103.74</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>1097.79</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>2208.98</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>2529.33</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>1709.91</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>1869.84</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>1331.70</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>1323.38</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>1106.64</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>1099.82</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>2275.13</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>2617.16</t>
+        </is>
+      </c>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>1755.64</t>
+        </is>
+      </c>
+      <c r="BX7" t="inlineStr">
+        <is>
+          <t>1901.91</t>
+        </is>
+      </c>
+      <c r="BY7" t="inlineStr">
+        <is>
+          <t>1407.31</t>
+        </is>
+      </c>
+      <c r="BZ7" t="inlineStr">
+        <is>
           <t>1398.86</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1361.33</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1392.65</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2378.56</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2590.06</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>1931.34</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1966.51</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1419.19</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1404.93</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1180.57</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>1170.74</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>2399.46</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>2609.38</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>1895.96</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>1988.95</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>1437.38</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>1425.24</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>1206.31</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>1199.94</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2399.35</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2608.40</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>1893.21</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>1987.10</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>1439.56</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>1428.67</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>1212.14</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>1205.83</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>2396.79</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>2604.98</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>1890.97</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>1981.40</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>1438.94</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>1428.26</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>1212.43</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>1206.93</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>2394.17</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>2601.70</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>1889.74</t>
-        </is>
-      </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>1974.89</t>
-        </is>
-      </c>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>1438.04</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>1427.52</t>
-        </is>
-      </c>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>1218.87</t>
-        </is>
-      </c>
-      <c r="BA7" t="inlineStr">
-        <is>
-          <t>1207.85</t>
-        </is>
-      </c>
-      <c r="BB7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="BC7" t="inlineStr">
-        <is>
-          <t>2392.57</t>
-        </is>
-      </c>
-      <c r="BD7" t="inlineStr">
-        <is>
-          <t>2599.52</t>
-        </is>
-      </c>
-      <c r="BE7" t="inlineStr">
-        <is>
-          <t>1889.86</t>
-        </is>
-      </c>
-      <c r="BF7" t="inlineStr">
-        <is>
-          <t>1969.96</t>
-        </is>
-      </c>
-      <c r="BG7" t="inlineStr">
-        <is>
-          <t>1439.45</t>
-        </is>
-      </c>
-      <c r="BH7" t="inlineStr">
-        <is>
-          <t>1427.62</t>
-        </is>
-      </c>
-      <c r="BI7" t="inlineStr">
-        <is>
-          <t>1219.80</t>
-        </is>
-      </c>
-      <c r="BJ7" t="inlineStr">
-        <is>
-          <t>1208.47</t>
-        </is>
-      </c>
-      <c r="BK7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="BL7" t="inlineStr">
-        <is>
-          <t>2396.28</t>
-        </is>
-      </c>
-      <c r="BM7" t="inlineStr">
-        <is>
-          <t>2603.17</t>
-        </is>
-      </c>
-      <c r="BN7" t="inlineStr">
-        <is>
-          <t>1899.42</t>
-        </is>
-      </c>
-      <c r="BO7" t="inlineStr">
-        <is>
-          <t>1970.82</t>
-        </is>
-      </c>
-      <c r="BP7" t="inlineStr">
-        <is>
-          <t>1445.32</t>
-        </is>
-      </c>
-      <c r="BQ7" t="inlineStr">
-        <is>
-          <t>1433.71</t>
-        </is>
-      </c>
-      <c r="BR7" t="inlineStr">
-        <is>
-          <t>1225.70</t>
-        </is>
-      </c>
-      <c r="BS7" t="inlineStr">
-        <is>
-          <t>1214.56</t>
-        </is>
-      </c>
-      <c r="BT7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="BU7" t="inlineStr">
-        <is>
-          <t>2472.35</t>
-        </is>
-      </c>
-      <c r="BV7" t="inlineStr">
-        <is>
-          <t>2684.78</t>
-        </is>
-      </c>
-      <c r="BW7" t="inlineStr">
-        <is>
-          <t>1919.37</t>
-        </is>
-      </c>
-      <c r="BX7" t="inlineStr">
-        <is>
-          <t>1996.70</t>
-        </is>
-      </c>
-      <c r="BY7" t="inlineStr">
-        <is>
-          <t>1515.99</t>
-        </is>
-      </c>
-      <c r="BZ7" t="inlineStr">
-        <is>
-          <t>1505.17</t>
-        </is>
-      </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1291.43</t>
+          <t>1164.63</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1280.80</t>
+          <t>1156.89</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3042.82</t>
+          <t>2801.83</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3204.01</t>
+          <t>3170.61</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2462.52</t>
+          <t>2223.52</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2487.90</t>
+          <t>2389.21</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>1836.22</t>
+          <t>1784.22</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>1804.20</t>
+          <t>1754.81</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>1748.52</t>
+          <t>1588.25</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>1752.81</t>
+          <t>1608.78</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1807.29</t>
+          <t>1545.74</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1842.28</t>
+          <t>1577.17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>914.19</t>
+          <t>588.46</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1860.77</t>
+          <t>1572.94</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1315.12</t>
+          <t>1114.88</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1316.08</t>
+          <t>1116.60</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1266.62</t>
+          <t>1058.16</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1299.59</t>
+          <t>1093.81</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2166.89</t>
+          <t>1988.34</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2439.25</t>
+          <t>2237.01</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1734.92</t>
+          <t>1597.40</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1838.15</t>
+          <t>1643.03</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1324.27</t>
+          <t>1172.83</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1313.46</t>
+          <t>1166.47</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1099.51</t>
+          <t>965.82</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1100.85</t>
+          <t>968.19</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2186.03</t>
+          <t>2012.05</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2462.30</t>
+          <t>2259.55</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1791.57</t>
+          <t>1595.13</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1863.42</t>
+          <t>1674.53</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1345.69</t>
+          <t>1199.76</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1334.90</t>
+          <t>1195.50</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1128.91</t>
+          <t>992.93</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1130.27</t>
+          <t>994.76</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2186.72</t>
+          <t>2013.53</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2464.18</t>
+          <t>2260.73</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1781.11</t>
+          <t>1586.76</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1864.83</t>
+          <t>1678.01</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1350.61</t>
+          <t>1206.47</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1341.53</t>
+          <t>1201.78</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1138.09</t>
+          <t>1001.14</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1136.11</t>
+          <t>998.65</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2184.97</t>
+          <t>2011.36</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2463.54</t>
+          <t>2258.59</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1776.91</t>
+          <t>1582.33</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1863.53</t>
+          <t>1675.02</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1353.41</t>
+          <t>1208.22</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1344.52</t>
+          <t>1203.66</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1140.40</t>
+          <t>1005.57</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1138.38</t>
+          <t>998.13</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2167.68</t>
+          <t>2008.68</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2455.06</t>
+          <t>2256.06</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1774.84</t>
+          <t>1583.60</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1861.87</t>
+          <t>1671.14</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1350.79</t>
+          <t>1207.76</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1346.08</t>
+          <t>1203.97</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1147.81</t>
+          <t>1003.97</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1139.92</t>
+          <t>1000.17</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2154.88</t>
+          <t>2006.25</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2455.08</t>
+          <t>2254.17</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1774.80</t>
+          <t>1581.51</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1860.96</t>
+          <t>1667.93</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1352.76</t>
+          <t>1206.81</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1347.47</t>
+          <t>1202.25</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1149.20</t>
+          <t>999.72</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1141.68</t>
+          <t>998.15</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2160.16</t>
+          <t>2007.22</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2460.35</t>
+          <t>2257.12</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1788.45</t>
+          <t>1583.95</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1864.48</t>
+          <t>1666.92</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1359.35</t>
+          <t>1208.62</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1352.86</t>
+          <t>1204.02</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1154.56</t>
+          <t>1001.15</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1147.40</t>
+          <t>998.52</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2230.67</t>
+          <t>2074.91</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2536.76</t>
+          <t>2335.26</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1727.71</t>
+          <t>1557.18</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1888.04</t>
+          <t>1691.94</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1425.50</t>
+          <t>1269.79</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1418.07</t>
+          <t>1267.51</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1217.74</t>
+          <t>1053.89</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1211.50</t>
+          <t>1050.47</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2721.30</t>
+          <t>2604.71</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3085.40</t>
+          <t>2859.74</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2162.59</t>
+          <t>1976.17</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2320.22</t>
+          <t>2128.94</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1717.88</t>
+          <t>1558.00</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1688.12</t>
+          <t>1536.55</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1558.15</t>
+          <t>1410.53</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1567.53</t>
+          <t>1419.51</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1781.77</t>
+          <t>1435.46</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1839.94</t>
+          <t>1427.87</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1364.97</t>
+          <t>755.76</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1872.37</t>
+          <t>1437.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1317.22</t>
+          <t>977.32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1318.85</t>
+          <t>981.73</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1267.24</t>
+          <t>979.33</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1304.55</t>
+          <t>1015.75</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2116.54</t>
+          <t>1854.06</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2421.28</t>
+          <t>2009.93</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1742.05</t>
+          <t>1509.66</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1833.21</t>
+          <t>1500.39</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1322.75</t>
+          <t>1028.13</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1312.42</t>
+          <t>1025.03</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1100.65</t>
+          <t>864.74</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1101.79</t>
+          <t>874.55</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2135.41</t>
+          <t>1869.69</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2427.97</t>
+          <t>2016.05</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1788.42</t>
+          <t>1495.88</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1852.32</t>
+          <t>1527.33</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1342.53</t>
+          <t>1047.66</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1332.89</t>
+          <t>1047.11</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1135.73</t>
+          <t>892.14</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1135.44</t>
+          <t>899.00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2137.41</t>
+          <t>1869.09</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2426.92</t>
+          <t>2008.56</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1779.59</t>
+          <t>1484.70</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1854.78</t>
+          <t>1528.50</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1347.23</t>
+          <t>1051.26</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1338.45</t>
+          <t>1052.14</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1144.18</t>
+          <t>902.54</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1142.73</t>
+          <t>903.78</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2149.14</t>
+          <t>1866.06</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2425.13</t>
+          <t>2000.24</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1779.10</t>
+          <t>1478.05</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1854.23</t>
+          <t>1525.50</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1349.00</t>
+          <t>1051.44</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1345.11</t>
+          <t>1053.05</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1148.02</t>
+          <t>903.65</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1146.83</t>
+          <t>904.31</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2154.05</t>
+          <t>1862.54</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2426.41</t>
+          <t>1995.29</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1780.46</t>
+          <t>1477.43</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1854.01</t>
+          <t>1521.29</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1350.22</t>
+          <t>1050.47</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1351.87</t>
+          <t>1052.40</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1157.02</t>
+          <t>903.05</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1152.49</t>
+          <t>907.58</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2158.08</t>
+          <t>1858.87</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2439.21</t>
+          <t>1999.30</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1782.75</t>
+          <t>1472.91</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1854.10</t>
+          <t>1516.65</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1354.97</t>
+          <t>1048.74</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1356.39</t>
+          <t>1050.68</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1160.35</t>
+          <t>901.40</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1156.30</t>
+          <t>905.79</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2164.10</t>
+          <t>1857.35</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2454.89</t>
+          <t>1994.38</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1797.98</t>
+          <t>1470.62</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1858.96</t>
+          <t>1513.61</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1363.19</t>
+          <t>1049.01</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1363.19</t>
+          <t>1050.52</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1168.38</t>
+          <t>900.75</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1164.28</t>
+          <t>904.93</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2231.54</t>
+          <t>1921.17</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2538.00</t>
+          <t>2055.51</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1738.88</t>
+          <t>1473.83</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1877.90</t>
+          <t>1533.02</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1426.82</t>
+          <t>1103.09</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1428.67</t>
+          <t>1103.72</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1231.19</t>
+          <t>948.96</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1228.90</t>
+          <t>952.52</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2708.65</t>
+          <t>2413.23</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3064.73</t>
+          <t>2563.95</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2125.13</t>
+          <t>1900.92</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2294.65</t>
+          <t>1937.27</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1716.95</t>
+          <t>1407.62</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1696.63</t>
+          <t>1392.76</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1538.39</t>
+          <t>1338.15</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1547.75</t>
+          <t>1359.11</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1821.23</t>
+          <t>1452.27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1801.90</t>
+          <t>1432.11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1479.67</t>
+          <t>1158.53</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1836.88</t>
+          <t>1421.80</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1316.93</t>
+          <t>1016.86</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1319.83</t>
+          <t>1022.26</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1303.28</t>
+          <t>1034.94</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1337.34</t>
+          <t>1073.24</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2160.90</t>
+          <t>1848.53</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2383.36</t>
+          <t>2040.69</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1780.65</t>
+          <t>1539.01</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1839.94</t>
+          <t>1479.72</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1328.24</t>
+          <t>1051.97</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1318.82</t>
+          <t>1048.13</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1125.72</t>
+          <t>903.00</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1122.92</t>
+          <t>911.92</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2184.83</t>
+          <t>1858.14</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2402.50</t>
+          <t>2043.53</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1824.97</t>
+          <t>1487.46</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1872.35</t>
+          <t>1498.27</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1346.43</t>
+          <t>1066.14</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1339.63</t>
+          <t>1064.59</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1150.86</t>
+          <t>925.03</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1152.04</t>
+          <t>931.84</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2192.65</t>
+          <t>1856.93</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2408.38</t>
+          <t>2036.09</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1815.29</t>
+          <t>1474.22</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1873.84</t>
+          <t>1495.42</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1351.77</t>
+          <t>1067.07</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1344.65</t>
+          <t>1066.66</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1156.69</t>
+          <t>932.69</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1156.70</t>
+          <t>934.15</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2198.32</t>
+          <t>1854.94</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2412.03</t>
+          <t>2028.41</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1810.32</t>
+          <t>1466.56</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1871.54</t>
+          <t>1490.17</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1353.57</t>
+          <t>1065.75</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1347.10</t>
+          <t>1065.94</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1158.91</t>
+          <t>932.34</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1158.65</t>
+          <t>933.30</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2203.41</t>
+          <t>1852.63</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2415.17</t>
+          <t>2021.61</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1807.21</t>
+          <t>1465.30</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1869.33</t>
+          <t>1484.51</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1355.07</t>
+          <t>1063.86</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1349.21</t>
+          <t>1064.36</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1166.76</t>
+          <t>930.92</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1160.29</t>
+          <t>935.75</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2208.89</t>
+          <t>1849.39</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2418.62</t>
+          <t>2016.14</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1806.17</t>
+          <t>1460.39</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1870.20</t>
+          <t>1478.56</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1357.02</t>
+          <t>1061.47</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1352.99</t>
+          <t>1062.00</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1168.64</t>
+          <t>928.68</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1162.43</t>
+          <t>933.35</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2219.19</t>
+          <t>1846.72</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2425.32</t>
+          <t>2015.56</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1818.22</t>
+          <t>1457.21</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1872.56</t>
+          <t>1474.02</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1363.56</t>
+          <t>1061.15</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1359.76</t>
+          <t>1061.36</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1174.85</t>
+          <t>927.58</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1169.10</t>
+          <t>931.96</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2310.02</t>
+          <t>1909.64</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2509.38</t>
+          <t>2086.32</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>1759.26</t>
+          <t>1473.36</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1893.09</t>
+          <t>1488.08</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1428.50</t>
+          <t>1109.53</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1424.45</t>
+          <t>1108.46</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1237.83</t>
+          <t>970.15</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1234.13</t>
+          <t>973.37</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2722.39</t>
+          <t>2435.85</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>3046.27</t>
+          <t>2601.38</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2186.64</t>
+          <t>1853.55</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2314.74</t>
+          <t>1892.09</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1699.28</t>
+          <t>1374.42</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1675.37</t>
+          <t>1360.15</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1609.67</t>
+          <t>1312.28</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1626.48</t>
+          <t>1346.33</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1897.00</t>
+          <t>1501.47</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1968.48</t>
+          <t>1438.35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1604.13</t>
+          <t>1266.80</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2002.64</t>
+          <t>1418.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1405.81</t>
+          <t>1049.04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1406.51</t>
+          <t>1053.51</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1351.42</t>
+          <t>1091.90</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1390.81</t>
+          <t>1130.97</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2311.66</t>
+          <t>1883.38</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2600.90</t>
+          <t>2033.28</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1850.31</t>
+          <t>1615.10</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1966.77</t>
+          <t>1479.14</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1402.95</t>
+          <t>1083.12</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1389.27</t>
+          <t>1076.23</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1174.44</t>
+          <t>952.68</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1170.54</t>
+          <t>960.85</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2328.33</t>
+          <t>1885.74</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2616.99</t>
+          <t>2036.34</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1835.88</t>
+          <t>1554.68</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1983.11</t>
+          <t>1498.91</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1418.54</t>
+          <t>1097.19</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1405.11</t>
+          <t>1091.47</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1196.53</t>
+          <t>973.81</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1195.09</t>
+          <t>979.37</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2329.05</t>
+          <t>1878.90</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2616.48</t>
+          <t>2031.09</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1821.14</t>
+          <t>1543.90</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1978.28</t>
+          <t>1501.79</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1420.46</t>
+          <t>1098.51</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1407.17</t>
+          <t>1093.26</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1199.47</t>
+          <t>981.27</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1196.63</t>
+          <t>981.11</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2327.69</t>
+          <t>1871.99</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2614.06</t>
+          <t>2025.36</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1812.11</t>
+          <t>1537.63</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1971.87</t>
+          <t>1503.50</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1420.07</t>
+          <t>1097.82</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1407.02</t>
+          <t>1092.82</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1199.41</t>
+          <t>980.88</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1196.20</t>
+          <t>980.15</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2326.26</t>
+          <t>1866.28</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2611.88</t>
+          <t>2020.00</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1809.77</t>
+          <t>1537.78</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1967.59</t>
+          <t>1499.73</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1419.72</t>
+          <t>1096.75</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1406.73</t>
+          <t>1091.86</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1205.28</t>
+          <t>979.61</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1195.86</t>
+          <t>982.92</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2325.68</t>
+          <t>1862.14</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2610.70</t>
+          <t>2015.72</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1808.58</t>
+          <t>1533.87</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1963.99</t>
+          <t>1501.38</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1420.22</t>
+          <t>1095.54</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1407.29</t>
+          <t>1090.63</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1205.42</t>
+          <t>977.69</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1196.15</t>
+          <t>980.76</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2329.97</t>
+          <t>1861.45</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2614.95</t>
+          <t>2015.99</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>1817.83</t>
+          <t>1531.92</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1965.35</t>
+          <t>1495.77</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1426.46</t>
+          <t>1097.39</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1413.61</t>
+          <t>1092.23</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1203.32</t>
+          <t>977.31</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1200.72</t>
+          <t>980.00</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2402.71</t>
+          <t>1929.83</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2694.56</t>
+          <t>2085.20</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>1814.08</t>
+          <t>1563.45</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1990.54</t>
+          <t>1503.13</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1498.98</t>
+          <t>1150.76</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1487.34</t>
+          <t>1145.04</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1263.38</t>
+          <t>1022.17</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1256.22</t>
+          <t>1023.39</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2902.64</t>
+          <t>2515.21</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>3208.66</t>
+          <t>2598.26</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2257.51</t>
+          <t>1918.81</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2464.19</t>
+          <t>1882.35</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1828.86</t>
+          <t>1362.67</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1797.16</t>
+          <t>1342.69</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>1685.21</t>
+          <t>1390.03</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>1689.67</t>
+          <t>1411.78</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1937.86</t>
+          <t>1755.27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1973.31</t>
+          <t>1790.19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1755.95</t>
+          <t>1662.16</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1986.69</t>
+          <t>1728.73</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1436.13</t>
+          <t>1212.52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1436.73</t>
+          <t>1208.55</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1419.37</t>
+          <t>1247.12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1466.69</t>
+          <t>1317.78</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2369.87</t>
+          <t>2247.94</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2557.89</t>
+          <t>2476.45</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1984.48</t>
+          <t>1807.86</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1927.02</t>
+          <t>1770.89</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1430.00</t>
+          <t>1253.94</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1416.14</t>
+          <t>1255.03</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1285.51</t>
+          <t>1143.88</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1277.54</t>
+          <t>1143.49</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2387.35</t>
+          <t>2257.82</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2575.51</t>
+          <t>2497.09</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1912.70</t>
+          <t>1742.90</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1938.73</t>
+          <t>1796.45</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1414.99</t>
+          <t>1279.12</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1411.34</t>
+          <t>1264.89</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1305.17</t>
+          <t>1164.55</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1301.77</t>
+          <t>1160.90</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2358.58</t>
+          <t>2252.08</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2575.49</t>
+          <t>2495.84</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>1899.60</t>
+          <t>1729.83</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>1933.71</t>
+          <t>1796.96</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1414.48</t>
+          <t>1290.17</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1402.56</t>
+          <t>1268.02</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1305.35</t>
+          <t>1170.26</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1301.24</t>
+          <t>1160.89</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2356.61</t>
+          <t>2244.92</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2572.70</t>
+          <t>2491.81</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>1891.40</t>
+          <t>1721.36</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>1922.58</t>
+          <t>1792.29</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1414.02</t>
+          <t>1321.20</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1401.26</t>
+          <t>1268.10</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1300.53</t>
+          <t>1167.62</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1297.79</t>
+          <t>1157.97</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2353.88</t>
+          <t>2238.99</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2570.45</t>
+          <t>2487.99</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>1886.00</t>
+          <t>1719.36</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>1916.32</t>
+          <t>1786.85</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1413.37</t>
+          <t>1317.30</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1400.65</t>
+          <t>1281.08</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1259.32</t>
+          <t>1163.10</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1292.79</t>
+          <t>1158.16</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2352.03</t>
+          <t>2234.20</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2568.39</t>
+          <t>2485.04</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>1881.99</t>
+          <t>1714.12</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1911.53</t>
+          <t>1783.15</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1413.48</t>
+          <t>1311.68</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1400.81</t>
+          <t>1307.97</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1257.64</t>
+          <t>1155.31</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1288.11</t>
+          <t>1152.31</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2354.52</t>
+          <t>2233.83</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2571.54</t>
+          <t>2489.08</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>1888.42</t>
+          <t>1712.10</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>1914.99</t>
+          <t>1783.41</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1418.97</t>
+          <t>1312.52</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1406.35</t>
+          <t>1303.98</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1259.20</t>
+          <t>1135.46</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1252.81</t>
+          <t>1139.30</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>2430.72</t>
+          <t>2302.30</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2647.95</t>
+          <t>2576.09</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>1895.74</t>
+          <t>1732.08</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>1935.71</t>
+          <t>1811.12</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1485.94</t>
+          <t>1375.69</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1473.24</t>
+          <t>1365.73</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1315.95</t>
+          <t>1182.88</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1307.87</t>
+          <t>1178.11</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3057.25</t>
+          <t>2870.48</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3230.95</t>
+          <t>3253.56</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>2395.16</t>
+          <t>2226.37</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2425.48</t>
+          <t>2285.60</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>1834.19</t>
+          <t>1716.37</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>1804.53</t>
+          <t>1680.53</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>1786.23</t>
+          <t>1632.83</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>1800.50</t>
+          <t>1645.08</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1947.66</t>
+          <t>1903.49</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1995.63</t>
+          <t>1933.71</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1442.65</t>
+          <t>1096.79</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2000.78</t>
+          <t>1877.34</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1429.71</t>
+          <t>1338.11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1429.98</t>
+          <t>1338.38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1449.89</t>
+          <t>1400.16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1477.96</t>
+          <t>1456.97</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2478.88</t>
+          <t>2440.24</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2626.53</t>
+          <t>2651.19</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2096.82</t>
+          <t>2057.15</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1954.67</t>
+          <t>1907.51</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1432.84</t>
+          <t>1380.26</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1419.08</t>
+          <t>1362.93</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1261.84</t>
+          <t>1238.65</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1262.22</t>
+          <t>1238.55</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2496.31</t>
+          <t>2456.38</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2639.64</t>
+          <t>2690.19</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1902.48</t>
+          <t>1930.98</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>1972.84</t>
+          <t>1950.06</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1449.10</t>
+          <t>1412.55</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1435.34</t>
+          <t>1393.37</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1284.17</t>
+          <t>1267.28</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1292.16</t>
+          <t>1258.01</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2497.61</t>
+          <t>2455.87</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2634.24</t>
+          <t>2693.31</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>1896.84</t>
+          <t>1923.67</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>1968.21</t>
+          <t>1953.22</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1451.39</t>
+          <t>1419.74</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1437.66</t>
+          <t>1404.28</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1287.87</t>
+          <t>1275.33</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1295.71</t>
+          <t>1262.52</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>2496.36</t>
+          <t>2451.93</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2629.91</t>
+          <t>2685.59</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>1891.01</t>
+          <t>1916.98</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>1961.37</t>
+          <t>1953.83</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1450.96</t>
+          <t>1423.77</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1437.38</t>
+          <t>1407.72</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1286.69</t>
+          <t>1279.63</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1295.56</t>
+          <t>1265.59</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>2494.69</t>
+          <t>2447.31</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2625.63</t>
+          <t>2674.88</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>1885.79</t>
+          <t>1917.11</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>1955.91</t>
+          <t>1947.06</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1450.44</t>
+          <t>1419.87</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1436.76</t>
+          <t>1409.15</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1292.76</t>
+          <t>1277.20</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1294.60</t>
+          <t>1272.08</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2507.25</t>
+          <t>2443.57</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2622.48</t>
+          <t>2669.54</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>1881.83</t>
+          <t>1916.92</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1956.28</t>
+          <t>1949.48</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1450.39</t>
+          <t>1415.82</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1436.74</t>
+          <t>1401.71</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1307.38</t>
+          <t>1319.13</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1293.50</t>
+          <t>1270.35</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>2510.40</t>
+          <t>2444.30</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2618.96</t>
+          <t>2670.72</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>1889.58</t>
+          <t>1931.21</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>1957.48</t>
+          <t>1951.39</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1455.61</t>
+          <t>1418.55</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1442.06</t>
+          <t>1404.37</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1290.44</t>
+          <t>1304.11</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1298.77</t>
+          <t>1307.24</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>2578.23</t>
+          <t>2513.70</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2699.54</t>
+          <t>2750.48</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2059.05</t>
+          <t>1978.60</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>1983.34</t>
+          <t>1977.81</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1519.23</t>
+          <t>1477.18</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1505.64</t>
+          <t>1462.54</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1349.54</t>
+          <t>1329.13</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1337.82</t>
+          <t>1323.00</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3100.23</t>
+          <t>3065.71</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3310.98</t>
+          <t>3325.04</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>2596.50</t>
+          <t>2568.95</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2492.34</t>
+          <t>2448.18</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>1858.42</t>
+          <t>1846.27</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>1827.46</t>
+          <t>1815.76</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>1879.55</t>
+          <t>1797.50</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>1883.30</t>
+          <t>1807.41</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1971.60</t>
+          <t>2034.90</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2029.02</t>
+          <t>1941.05</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>690.51</t>
+          <t>671.88</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1940.05</t>
+          <t>1934.38</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1405.55</t>
+          <t>1448.21</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1405.69</t>
+          <t>1447.96</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1461.92</t>
+          <t>1482.08</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1481.15</t>
+          <t>1524.34</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2538.15</t>
+          <t>2661.87</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2723.84</t>
+          <t>2609.31</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2207.94</t>
+          <t>2172.71</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2029.86</t>
+          <t>1973.87</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1463.36</t>
+          <t>1480.96</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1448.16</t>
+          <t>1466.24</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1332.46</t>
+          <t>1309.80</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1319.86</t>
+          <t>1309.63</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2538.92</t>
+          <t>2677.97</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2749.30</t>
+          <t>2626.17</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>1984.02</t>
+          <t>2011.63</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2053.08</t>
+          <t>1991.70</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1483.86</t>
+          <t>1496.26</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1466.76</t>
+          <t>1481.51</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1353.95</t>
+          <t>1333.17</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1347.12</t>
+          <t>1333.59</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2530.89</t>
+          <t>2675.14</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2748.79</t>
+          <t>2621.72</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>1981.35</t>
+          <t>1994.75</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2047.50</t>
+          <t>1986.23</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1482.06</t>
+          <t>1496.02</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1466.98</t>
+          <t>1481.30</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1356.62</t>
+          <t>1342.74</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1349.04</t>
+          <t>1332.53</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2528.26</t>
+          <t>2667.94</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2744.33</t>
+          <t>2616.22</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>1973.93</t>
+          <t>1998.29</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2038.81</t>
+          <t>1978.21</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1466.97</t>
+          <t>1492.95</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1452.27</t>
+          <t>1478.27</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1356.29</t>
+          <t>1358.27</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1347.98</t>
+          <t>1327.33</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2525.38</t>
+          <t>2661.36</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2739.68</t>
+          <t>2610.08</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>1966.13</t>
+          <t>2072.32</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2029.36</t>
+          <t>1968.33</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1465.98</t>
+          <t>1489.52</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1451.29</t>
+          <t>1474.86</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1359.79</t>
+          <t>1337.12</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1347.46</t>
+          <t>1376.78</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2522.61</t>
+          <t>2657.68</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2736.20</t>
+          <t>2606.55</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>1959.62</t>
+          <t>1956.56</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2023.21</t>
+          <t>1963.79</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1465.82</t>
+          <t>1486.38</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1451.13</t>
+          <t>1471.67</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1359.85</t>
+          <t>1327.38</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1346.52</t>
+          <t>1321.74</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2523.83</t>
+          <t>2658.28</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2738.51</t>
+          <t>2609.14</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>1962.71</t>
+          <t>1956.11</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2022.35</t>
+          <t>1964.25</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1471.38</t>
+          <t>1489.63</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1456.70</t>
+          <t>1474.96</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1361.54</t>
+          <t>1329.51</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1349.70</t>
+          <t>1322.96</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>2589.15</t>
+          <t>2728.41</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2823.84</t>
+          <t>2688.07</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2108.37</t>
+          <t>2139.60</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2052.01</t>
+          <t>1993.37</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1540.59</t>
+          <t>1554.31</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1525.79</t>
+          <t>1539.43</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1412.07</t>
+          <t>1392.80</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1398.54</t>
+          <t>1385.75</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3339.25</t>
+          <t>3102.32</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3360.55</t>
+          <t>3123.58</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>2680.13</t>
+          <t>2757.58</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2499.20</t>
+          <t>2400.14</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>1963.78</t>
+          <t>1845.23</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>1925.44</t>
+          <t>1813.59</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2048.50</t>
+          <t>1990.09</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2057.84</t>
+          <t>1995.43</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1781.77</t>
+          <t>1435.46</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1801.90</t>
+          <t>1427.87</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>501.08</t>
+          <t>341.52</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1836.88</t>
+          <t>1418.07</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1315.12</t>
+          <t>977.32</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1316.08</t>
+          <t>981.73</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1266.62</t>
+          <t>979.33</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1299.59</t>
+          <t>1015.75</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2116.54</t>
+          <t>1848.53</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2383.36</t>
+          <t>2009.93</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1734.92</t>
+          <t>1509.66</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1833.21</t>
+          <t>1479.14</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1322.75</t>
+          <t>1028.13</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1312.42</t>
+          <t>1025.03</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1099.51</t>
+          <t>864.74</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1100.85</t>
+          <t>874.55</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2135.41</t>
+          <t>1858.14</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2402.50</t>
+          <t>2016.05</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1788.42</t>
+          <t>1487.46</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1852.32</t>
+          <t>1498.27</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1342.53</t>
+          <t>1047.66</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1332.89</t>
+          <t>1047.11</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1128.91</t>
+          <t>892.14</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1130.27</t>
+          <t>899.00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2137.41</t>
+          <t>1856.93</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2408.38</t>
+          <t>2008.56</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1779.59</t>
+          <t>1474.22</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1854.78</t>
+          <t>1495.42</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1347.23</t>
+          <t>1051.26</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1338.45</t>
+          <t>1052.14</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1138.09</t>
+          <t>902.54</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1136.11</t>
+          <t>903.78</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2149.14</t>
+          <t>1854.94</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2412.03</t>
+          <t>2000.24</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1776.91</t>
+          <t>1466.56</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1854.23</t>
+          <t>1490.17</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1349.00</t>
+          <t>1051.44</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1344.52</t>
+          <t>1053.05</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1140.40</t>
+          <t>903.65</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1138.38</t>
+          <t>904.31</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2154.05</t>
+          <t>1852.63</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2415.17</t>
+          <t>1995.29</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1774.84</t>
+          <t>1465.30</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>1854.01</t>
+          <t>1484.51</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1350.22</t>
+          <t>1050.47</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1346.08</t>
+          <t>1052.40</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1147.81</t>
+          <t>903.05</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1139.92</t>
+          <t>907.58</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2154.88</t>
+          <t>1849.39</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2418.62</t>
+          <t>1999.30</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1774.80</t>
+          <t>1460.39</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1854.10</t>
+          <t>1478.56</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1352.76</t>
+          <t>1048.74</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1347.47</t>
+          <t>1050.68</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1149.20</t>
+          <t>901.40</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1141.68</t>
+          <t>905.79</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>2160.16</t>
+          <t>1846.72</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>2425.32</t>
+          <t>1994.38</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>1788.45</t>
+          <t>1457.21</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>1858.96</t>
+          <t>1474.02</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1359.35</t>
+          <t>1049.01</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1352.86</t>
+          <t>1050.52</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1154.56</t>
+          <t>900.75</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1147.40</t>
+          <t>904.93</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2230.67</t>
+          <t>1909.64</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>2509.38</t>
+          <t>2055.51</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>1727.71</t>
+          <t>1473.36</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>1877.90</t>
+          <t>1488.08</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>1425.50</t>
+          <t>1103.09</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>1418.07</t>
+          <t>1103.72</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1217.74</t>
+          <t>948.96</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1211.50</t>
+          <t>952.52</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>2708.65</t>
+          <t>2413.23</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>3046.27</t>
+          <t>2563.95</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>2125.13</t>
+          <t>1853.55</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>2294.65</t>
+          <t>1882.35</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>1699.28</t>
+          <t>1362.67</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>1675.37</t>
+          <t>1342.69</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1538.39</t>
+          <t>1312.28</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1547.75</t>
+          <t>1346.33</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1982.84</t>
+          <t>2034.90</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2029.02</t>
+          <t>2000.04</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1755.95</t>
+          <t>1662.16</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2002.64</t>
+          <t>1934.38</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1436.13</t>
+          <t>1448.21</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1436.73</t>
+          <t>1447.96</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1461.92</t>
+          <t>1482.08</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1488.45</t>
+          <t>1524.34</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2641.77</t>
+          <t>2669.74</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2723.84</t>
+          <t>2738.31</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2207.94</t>
+          <t>2179.82</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2029.86</t>
+          <t>2009.27</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1463.36</t>
+          <t>1488.58</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1448.16</t>
+          <t>1473.72</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1332.46</t>
+          <t>1309.80</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1319.86</t>
+          <t>1311.65</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2666.17</t>
+          <t>2690.23</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2749.30</t>
+          <t>2768.73</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>1984.02</t>
+          <t>2015.06</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2053.08</t>
+          <t>2058.15</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1483.86</t>
+          <t>1517.90</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1466.76</t>
+          <t>1490.11</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1354.70</t>
+          <t>1347.62</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1348.07</t>
+          <t>1344.77</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2657.07</t>
+          <t>2686.86</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2748.79</t>
+          <t>2763.91</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>1981.35</t>
+          <t>2010.48</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2047.50</t>
+          <t>2062.03</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1500.96</t>
+          <t>1501.72</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1466.98</t>
+          <t>1489.96</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1363.36</t>
+          <t>1360.09</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1351.93</t>
+          <t>1357.69</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>2638.69</t>
+          <t>2677.18</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2744.33</t>
+          <t>2754.92</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>1973.93</t>
+          <t>2039.22</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2038.81</t>
+          <t>2050.67</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1475.79</t>
+          <t>1498.22</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1460.28</t>
+          <t>1483.13</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1363.47</t>
+          <t>1361.63</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1352.19</t>
+          <t>1352.79</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2619.52</t>
+          <t>2683.88</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2739.68</t>
+          <t>2747.12</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>1966.13</t>
+          <t>2072.32</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2029.36</t>
+          <t>2038.51</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1473.65</t>
+          <t>1507.64</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1458.18</t>
+          <t>1489.07</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1361.64</t>
+          <t>1386.57</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1351.84</t>
+          <t>1376.78</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2630.74</t>
+          <t>2674.69</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2736.20</t>
+          <t>2739.70</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>1959.81</t>
+          <t>2026.44</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2023.21</t>
+          <t>2030.52</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1481.07</t>
+          <t>1502.88</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1465.60</t>
+          <t>1487.51</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1361.32</t>
+          <t>1357.19</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1352.14</t>
+          <t>1353.11</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>2630.01</t>
+          <t>2671.09</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2738.51</t>
+          <t>2739.42</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>1962.71</t>
+          <t>2037.07</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2022.35</t>
+          <t>2028.41</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1485.45</t>
+          <t>1505.76</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1470.02</t>
+          <t>1489.99</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1365.10</t>
+          <t>1344.71</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1352.11</t>
+          <t>1351.30</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>2705.79</t>
+          <t>2743.31</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>2823.84</t>
+          <t>2823.03</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2170.79</t>
+          <t>2141.78</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2052.01</t>
+          <t>2056.45</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1558.87</t>
+          <t>1576.96</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1541.97</t>
+          <t>1561.27</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1412.07</t>
+          <t>1392.80</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1398.54</t>
+          <t>1387.54</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>3339.25</t>
+          <t>3402.07</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3482.96</t>
+          <t>3500.72</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>2680.13</t>
+          <t>2757.58</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2499.20</t>
+          <t>2516.24</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>1963.78</t>
+          <t>1928.77</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>1925.44</t>
+          <t>1891.91</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2055.03</t>
+          <t>2001.83</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2059.54</t>
+          <t>2016.77</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
